--- a/src/test/resources/initialData.xlsx
+++ b/src/test/resources/initialData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scep\Documents\NetBeansProjects\GPI_2018_HS_Abschlussarbeit_Vorgaben\Umzugsplattform_Musterloesung_Aufgabe_5\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C609F419-FC4A-4BE3-9063-BDC7DCD98AFF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C817DF-7EF1-45E6-84FD-1AF86DFB1E38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,12 @@
     <sheet name="GWR_SQL" sheetId="4" r:id="rId2"/>
     <sheet name="PLZ" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eUmzugMusterloesung_SQL!$A$3:$I$354</definedName>
+  </definedNames>
   <calcPr calcId="179021" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1177,9 +1180,6 @@
     <t>feeMoveIn</t>
   </si>
   <si>
-    <t>SQL_MUNICIPALITY_DOCUMENT</t>
-  </si>
-  <si>
     <t>Hochladen</t>
   </si>
   <si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>SQL_MUNICIPALITY_FULL</t>
+  </si>
+  <si>
+    <t>SQL_MUNICIPALITY_DOCUMENT_RELATION</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:E468" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -5718,10 +5721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G320" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,7 +5743,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5770,19 +5774,19 @@
         <v>379</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>301</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>302</v>
       </c>
@@ -5838,7 +5842,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>303</v>
       </c>
@@ -5864,7 +5868,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>304</v>
       </c>
@@ -5918,8 +5922,8 @@
         <v>351</v>
       </c>
       <c r="I8" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A8,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(305, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A8,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(305, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5950,8 +5954,8 @@
         <v>352</v>
       </c>
       <c r="I9" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A9,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(306, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A9,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(306, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5982,9 +5986,9 @@
         <v>353</v>
       </c>
       <c r="I10" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A10,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A10,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(307, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(307, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A10,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A10,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(307, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(307, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6015,8 +6019,8 @@
         <v>354</v>
       </c>
       <c r="I11" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A11,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(309, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A11,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(309, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6047,8 +6051,8 @@
         <v>355</v>
       </c>
       <c r="I12" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A12,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(310, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A12,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(310, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6079,9 +6083,9 @@
         <v>356</v>
       </c>
       <c r="I13" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A13,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A13,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(311, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(311, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A13,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A13,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(311, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(311, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6112,10 +6116,10 @@
         <v>357</v>
       </c>
       <c r="I14" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A14,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A14,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A14,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(312, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(312, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(312, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A14,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A14,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A14,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(312, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(312, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(312, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -6146,14 +6150,14 @@
         <v>358</v>
       </c>
       <c r="I15" s="12" t="str">
-        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A15,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(321, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>322</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(322,'Auswil',20,10,20);</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>323</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(323,'Bannwil',10,0,10);</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>324</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(324,'Bleienbach',30,30,0);</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>325</v>
       </c>
@@ -6281,8 +6285,8 @@
         <v>351</v>
       </c>
       <c r="I20" s="12" t="str">
-        <f t="shared" ref="I20" si="3">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A20,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(326, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A20,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(326, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -6313,8 +6317,8 @@
         <v>352</v>
       </c>
       <c r="I21" s="12" t="str">
-        <f t="shared" ref="I21" si="4">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A21,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(329, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A21,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(329, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6345,9 +6349,9 @@
         <v>353</v>
       </c>
       <c r="I22" s="12" t="str">
-        <f t="shared" ref="I22" si="5">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A22,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A22,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(331, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(331, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A22,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A22,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(331, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(331, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6378,8 +6382,8 @@
         <v>354</v>
       </c>
       <c r="I23" s="12" t="str">
-        <f t="shared" ref="I23" si="6">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A23,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(332, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A23,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(332, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6410,8 +6414,8 @@
         <v>355</v>
       </c>
       <c r="I24" s="12" t="str">
-        <f t="shared" ref="I24" si="7">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A24,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(333, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A24,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(333, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6442,9 +6446,9 @@
         <v>356</v>
       </c>
       <c r="I25" s="12" t="str">
-        <f t="shared" ref="I25" si="8">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A25,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A25,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(334, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(334, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A25,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A25,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(334, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(334, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6475,10 +6479,10 @@
         <v>357</v>
       </c>
       <c r="I26" s="12" t="str">
-        <f t="shared" ref="I26" si="9">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A26,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A26,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A26,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(335, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(335, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(335, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A26,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A26,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A26,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(335, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(335, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(335, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6509,14 +6513,14 @@
         <v>358</v>
       </c>
       <c r="I27" s="12" t="str">
-        <f t="shared" ref="I27" si="10">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A27,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(336, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>337</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(337,'Roggwil (BE)',30,0,0);</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>338</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(338,'Rohrbach',0,30,10);</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>339</v>
       </c>
@@ -6591,7 +6595,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(339,'Rohrbachgraben',10,10,20);</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>340</v>
       </c>
@@ -6644,8 +6648,8 @@
         <v>351</v>
       </c>
       <c r="I32" s="12" t="str">
-        <f t="shared" ref="I32" si="11">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A32,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(341, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A32,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(341, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6676,8 +6680,8 @@
         <v>352</v>
       </c>
       <c r="I33" s="12" t="str">
-        <f t="shared" ref="I33" si="12">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A33,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(342, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A33,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(342, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6708,9 +6712,9 @@
         <v>353</v>
       </c>
       <c r="I34" s="12" t="str">
-        <f t="shared" ref="I34" si="13">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A34,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A34,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(344, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(344, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A34,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A34,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(344, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(344, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -6741,8 +6745,8 @@
         <v>354</v>
       </c>
       <c r="I35" s="12" t="str">
-        <f t="shared" ref="I35" si="14">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A35,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(345, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A35,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(345, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -6773,8 +6777,8 @@
         <v>355</v>
       </c>
       <c r="I36" s="12" t="str">
-        <f t="shared" ref="I36" si="15">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A36,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(351, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A36,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(351, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6805,9 +6809,9 @@
         <v>356</v>
       </c>
       <c r="I37" s="12" t="str">
-        <f t="shared" ref="I37" si="16">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A37,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A37,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(352, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(352, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A37,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A37,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(352, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(352, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -6838,10 +6842,10 @@
         <v>357</v>
       </c>
       <c r="I38" s="12" t="str">
-        <f t="shared" ref="I38" si="17">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A38,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A38,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A38,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(353, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(353, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(353, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A38,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A38,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A38,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(353, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(353, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(353, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6872,14 +6876,14 @@
         <v>358</v>
       </c>
       <c r="I39" s="12" t="str">
-        <f t="shared" ref="I39" si="18">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A39,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(354, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>355</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(355,'Köniz',10,20,10);</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>356</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(356,'Muri bei Bern',10,10,20);</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>357</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(357,'Oberbalm',30,30,0);</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>358</v>
       </c>
@@ -7007,8 +7011,8 @@
         <v>351</v>
       </c>
       <c r="I44" s="12" t="str">
-        <f t="shared" ref="I44" si="19">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A44,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(359, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A44,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(359, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7039,8 +7043,8 @@
         <v>352</v>
       </c>
       <c r="I45" s="12" t="str">
-        <f t="shared" ref="I45" si="20">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A45,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(360, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A45,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(360, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7071,9 +7075,9 @@
         <v>353</v>
       </c>
       <c r="I46" s="12" t="str">
-        <f t="shared" ref="I46" si="21">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A46,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A46,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(361, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(361, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A46,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A46,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(361, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(361, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7104,8 +7108,8 @@
         <v>354</v>
       </c>
       <c r="I47" s="12" t="str">
-        <f t="shared" ref="I47" si="22">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A47,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(362, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A47,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(362, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -7136,8 +7140,8 @@
         <v>355</v>
       </c>
       <c r="I48" s="12" t="str">
-        <f t="shared" ref="I48" si="23">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A48,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(363, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A48,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(363, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7168,9 +7172,9 @@
         <v>356</v>
       </c>
       <c r="I49" s="12" t="str">
-        <f t="shared" ref="I49" si="24">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A49,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A49,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(371, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(371, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A49,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A49,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(371, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(371, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7201,10 +7205,10 @@
         <v>357</v>
       </c>
       <c r="I50" s="12" t="str">
-        <f t="shared" ref="I50" si="25">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A50,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A50,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A50,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(372, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(372, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(372, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A50,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A50,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A50,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(372, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(372, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(372, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7235,14 +7239,14 @@
         <v>358</v>
       </c>
       <c r="I51" s="12" t="str">
-        <f t="shared" ref="I51" si="26">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A51,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(381, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>382</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(382,'Büetigen',20,20,10);</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>383</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(383,'Büren an der Aare',10,10,30);</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>385</v>
       </c>
@@ -7317,7 +7321,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(385,'Diessbach bei Büren',20,10,30);</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>386</v>
       </c>
@@ -7370,8 +7374,8 @@
         <v>351</v>
       </c>
       <c r="I56" s="12" t="str">
-        <f t="shared" ref="I56" si="27">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A56,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(387, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A56,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(387, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -7402,8 +7406,8 @@
         <v>352</v>
       </c>
       <c r="I57" s="12" t="str">
-        <f t="shared" ref="I57" si="28">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A57,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(388, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A57,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(388, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7434,9 +7438,9 @@
         <v>353</v>
       </c>
       <c r="I58" s="12" t="str">
-        <f t="shared" ref="I58" si="29">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A58,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A58,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(389, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(389, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A58,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A58,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(389, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(389, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -7467,8 +7471,8 @@
         <v>354</v>
       </c>
       <c r="I59" s="12" t="str">
-        <f t="shared" ref="I59" si="30">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A59,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(390, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A59,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(390, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7499,8 +7503,8 @@
         <v>355</v>
       </c>
       <c r="I60" s="12" t="str">
-        <f t="shared" ref="I60" si="31">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A60,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(391, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A60,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(391, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7531,9 +7535,9 @@
         <v>356</v>
       </c>
       <c r="I61" s="12" t="str">
-        <f t="shared" ref="I61" si="32">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A61,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A61,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(392, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(392, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A61,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A61,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(392, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(392, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7564,10 +7568,10 @@
         <v>357</v>
       </c>
       <c r="I62" s="12" t="str">
-        <f t="shared" ref="I62" si="33">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A62,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A62,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A62,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(393, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(393, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(393, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A62,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A62,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A62,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(393, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(393, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(393, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7598,14 +7602,14 @@
         <v>358</v>
       </c>
       <c r="I63" s="12" t="str">
-        <f t="shared" ref="I63" si="34">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A63,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(394, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>401</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(401,'Aefligen',20,0,10);</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>402</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(402,'Alchenstorf',30,30,20);</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>403</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(403,'Bäriswil',20,0,10);</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>404</v>
       </c>
@@ -7726,15 +7730,15 @@
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(405,'Ersigen');</v>
       </c>
       <c r="G68" s="11" t="str">
-        <f t="shared" ref="G68:G131" si="35">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A68,",'",B68,"',",C68,",",D68,",",E68,");")</f>
+        <f t="shared" ref="G68:G131" si="3">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A68,",'",B68,"',",C68,",",D68,",",E68,");")</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(405,'Ersigen',20,0,10);</v>
       </c>
       <c r="H68" t="s">
         <v>351</v>
       </c>
       <c r="I68" s="12" t="str">
-        <f t="shared" ref="I68" si="36">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A68,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(405, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A68,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(405, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -7754,19 +7758,19 @@
         <v>0</v>
       </c>
       <c r="F69" s="11" t="str">
-        <f t="shared" ref="F69:F132" si="37">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A69&amp;",'"&amp;B69&amp;"');"</f>
+        <f t="shared" ref="F69:F132" si="4">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A69&amp;",'"&amp;B69&amp;"');"</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(406,'Hasle bei Burgdorf');</v>
       </c>
       <c r="G69" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(406,'Hasle bei Burgdorf',10,30,0);</v>
       </c>
       <c r="H69" t="s">
         <v>352</v>
       </c>
       <c r="I69" s="12" t="str">
-        <f t="shared" ref="I69" si="38">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A69,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(406, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A69,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(406, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7786,20 +7790,20 @@
         <v>10</v>
       </c>
       <c r="F70" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(407,'Heimiswil');</v>
       </c>
       <c r="G70" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(407,'Heimiswil',10,10,10);</v>
       </c>
       <c r="H70" t="s">
         <v>353</v>
       </c>
       <c r="I70" s="12" t="str">
-        <f t="shared" ref="I70" si="39">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A70,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A70,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(407, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(407, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A70,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A70,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(407, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(407, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -7819,19 +7823,19 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(408,'Hellsau');</v>
       </c>
       <c r="G71" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(408,'Hellsau',10,10,10);</v>
       </c>
       <c r="H71" t="s">
         <v>354</v>
       </c>
       <c r="I71" s="12" t="str">
-        <f t="shared" ref="I71" si="40">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A71,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(408, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A71,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(408, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -7851,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="F72" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(409,'Hindelbank');</v>
       </c>
       <c r="G72" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(409,'Hindelbank',30,10,0);</v>
       </c>
       <c r="H72" t="s">
         <v>355</v>
       </c>
       <c r="I72" s="12" t="str">
-        <f t="shared" ref="I72" si="41">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A72,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(409, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A72,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(409, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -7883,20 +7887,20 @@
         <v>10</v>
       </c>
       <c r="F73" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(410,'Höchstetten');</v>
       </c>
       <c r="G73" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(410,'Höchstetten',10,0,10);</v>
       </c>
       <c r="H73" t="s">
         <v>356</v>
       </c>
       <c r="I73" s="12" t="str">
-        <f t="shared" ref="I73" si="42">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A73,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A73,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(410, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(410, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A73,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A73,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(410, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(410, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -7916,21 +7920,21 @@
         <v>20</v>
       </c>
       <c r="F74" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(411,'Kernenried');</v>
       </c>
       <c r="G74" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(411,'Kernenried',30,0,20);</v>
       </c>
       <c r="H74" t="s">
         <v>357</v>
       </c>
       <c r="I74" s="12" t="str">
-        <f t="shared" ref="I74" si="43">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A74,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A74,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A74,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(411, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(411, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(411, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A74,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A74,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A74,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(411, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(411, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(411, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7950,25 +7954,25 @@
         <v>30</v>
       </c>
       <c r="F75" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(412,'Kirchberg (BE)');</v>
       </c>
       <c r="G75" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(412,'Kirchberg (BE)',10,30,30);</v>
       </c>
       <c r="H75" t="s">
         <v>358</v>
       </c>
       <c r="I75" s="12" t="str">
-        <f t="shared" ref="I75" si="44">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A75,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(412, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>413</v>
       </c>
@@ -7985,15 +7989,15 @@
         <v>0</v>
       </c>
       <c r="F76" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(413,'Koppigen');</v>
       </c>
       <c r="G76" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(413,'Koppigen',20,20,0);</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>414</v>
       </c>
@@ -8010,15 +8014,15 @@
         <v>30</v>
       </c>
       <c r="F77" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(414,'Krauchthal');</v>
       </c>
       <c r="G77" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(414,'Krauchthal',0,20,30);</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>415</v>
       </c>
@@ -8035,15 +8039,15 @@
         <v>20</v>
       </c>
       <c r="F78" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(415,'Lyssach');</v>
       </c>
       <c r="G78" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(415,'Lyssach',30,20,20);</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>416</v>
       </c>
@@ -8060,11 +8064,11 @@
         <v>10</v>
       </c>
       <c r="F79" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(416,'Mötschwil');</v>
       </c>
       <c r="G79" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(416,'Mötschwil',20,0,10);</v>
       </c>
     </row>
@@ -8085,19 +8089,19 @@
         <v>0</v>
       </c>
       <c r="F80" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(418,'Oberburg');</v>
       </c>
       <c r="G80" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(418,'Oberburg',30,0,0);</v>
       </c>
       <c r="H80" t="s">
         <v>351</v>
       </c>
       <c r="I80" s="12" t="str">
-        <f t="shared" ref="I80" si="45">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A80,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(418, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A80,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(418, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -8117,19 +8121,19 @@
         <v>30</v>
       </c>
       <c r="F81" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(420,'Rüdtligen-Alchenflüh');</v>
       </c>
       <c r="G81" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(420,'Rüdtligen-Alchenflüh',10,20,30);</v>
       </c>
       <c r="H81" t="s">
         <v>352</v>
       </c>
       <c r="I81" s="12" t="str">
-        <f t="shared" ref="I81" si="46">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A81,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(420, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A81,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(420, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8149,20 +8153,20 @@
         <v>0</v>
       </c>
       <c r="F82" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(421,'Rumendingen');</v>
       </c>
       <c r="G82" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(421,'Rumendingen',20,20,0);</v>
       </c>
       <c r="H82" t="s">
         <v>353</v>
       </c>
       <c r="I82" s="12" t="str">
-        <f t="shared" ref="I82" si="47">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A82,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A82,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(421, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(421, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A82,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A82,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(421, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(421, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -8182,19 +8186,19 @@
         <v>20</v>
       </c>
       <c r="F83" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(422,'Rüti bei Lyssach');</v>
       </c>
       <c r="G83" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(422,'Rüti bei Lyssach',10,20,20);</v>
       </c>
       <c r="H83" t="s">
         <v>354</v>
       </c>
       <c r="I83" s="12" t="str">
-        <f t="shared" ref="I83" si="48">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A83,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(422, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A83,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(422, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -8214,19 +8218,19 @@
         <v>30</v>
       </c>
       <c r="F84" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(423,'Willadingen');</v>
       </c>
       <c r="G84" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(423,'Willadingen',10,20,30);</v>
       </c>
       <c r="H84" t="s">
         <v>355</v>
       </c>
       <c r="I84" s="12" t="str">
-        <f t="shared" ref="I84" si="49">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A84,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(423, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A84,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(423, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8246,20 +8250,20 @@
         <v>30</v>
       </c>
       <c r="F85" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(424,'Wynigen');</v>
       </c>
       <c r="G85" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(424,'Wynigen',10,10,30);</v>
       </c>
       <c r="H85" t="s">
         <v>356</v>
       </c>
       <c r="I85" s="12" t="str">
-        <f t="shared" ref="I85" si="50">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A85,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A85,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(424, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(424, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A85,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A85,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(424, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(424, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -8279,21 +8283,21 @@
         <v>10</v>
       </c>
       <c r="F86" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(431,'Corgémont');</v>
       </c>
       <c r="G86" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(431,'Corgémont',0,20,10);</v>
       </c>
       <c r="H86" t="s">
         <v>357</v>
       </c>
       <c r="I86" s="12" t="str">
-        <f t="shared" ref="I86" si="51">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A86,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A86,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A86,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(431, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(431, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(431, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A86,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A86,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A86,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(431, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(431, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(431, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -8313,25 +8317,25 @@
         <v>20</v>
       </c>
       <c r="F87" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(432,'Cormoret');</v>
       </c>
       <c r="G87" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(432,'Cormoret',10,20,20);</v>
       </c>
       <c r="H87" t="s">
         <v>358</v>
       </c>
       <c r="I87" s="12" t="str">
-        <f t="shared" ref="I87" si="52">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A87,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(432, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>433</v>
       </c>
@@ -8348,15 +8352,15 @@
         <v>10</v>
       </c>
       <c r="F88" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(433,'Cortébert');</v>
       </c>
       <c r="G88" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(433,'Cortébert',20,10,10);</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>434</v>
       </c>
@@ -8373,15 +8377,15 @@
         <v>20</v>
       </c>
       <c r="F89" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(434,'Courtelary');</v>
       </c>
       <c r="G89" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(434,'Courtelary',20,20,20);</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>435</v>
       </c>
@@ -8398,15 +8402,15 @@
         <v>10</v>
       </c>
       <c r="F90" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(435,'La Ferrière');</v>
       </c>
       <c r="G90" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(435,'La Ferrière',30,20,10);</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>437</v>
       </c>
@@ -8423,11 +8427,11 @@
         <v>30</v>
       </c>
       <c r="F91" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(437,'Mont-Tramelan');</v>
       </c>
       <c r="G91" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(437,'Mont-Tramelan',30,10,30);</v>
       </c>
     </row>
@@ -8448,19 +8452,19 @@
         <v>10</v>
       </c>
       <c r="F92" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(438,'Orvin');</v>
       </c>
       <c r="G92" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(438,'Orvin',0,20,10);</v>
       </c>
       <c r="H92" t="s">
         <v>351</v>
       </c>
       <c r="I92" s="12" t="str">
-        <f t="shared" ref="I92" si="53">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A92,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(438, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A92,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(438, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -8480,19 +8484,19 @@
         <v>20</v>
       </c>
       <c r="F93" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(441,'Renan (BE)');</v>
       </c>
       <c r="G93" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(441,'Renan (BE)',20,10,20);</v>
       </c>
       <c r="H93" t="s">
         <v>352</v>
       </c>
       <c r="I93" s="12" t="str">
-        <f t="shared" ref="I93" si="54">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A93,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(441, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A93,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(441, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8512,20 +8516,20 @@
         <v>20</v>
       </c>
       <c r="F94" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(442,'Romont (BE)');</v>
       </c>
       <c r="G94" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(442,'Romont (BE)',20,30,20);</v>
       </c>
       <c r="H94" t="s">
         <v>353</v>
       </c>
       <c r="I94" s="12" t="str">
-        <f t="shared" ref="I94" si="55">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A94,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A94,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(442, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(442, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A94,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A94,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(442, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(442, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -8545,19 +8549,19 @@
         <v>20</v>
       </c>
       <c r="F95" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(443,'Saint-Imier');</v>
       </c>
       <c r="G95" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(443,'Saint-Imier',10,20,20);</v>
       </c>
       <c r="H95" t="s">
         <v>354</v>
       </c>
       <c r="I95" s="12" t="str">
-        <f t="shared" ref="I95" si="56">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A95,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(443, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A95,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(443, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -8577,19 +8581,19 @@
         <v>10</v>
       </c>
       <c r="F96" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(444,'Sonceboz-Sombeval');</v>
       </c>
       <c r="G96" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(444,'Sonceboz-Sombeval',10,10,10);</v>
       </c>
       <c r="H96" t="s">
         <v>355</v>
       </c>
       <c r="I96" s="12" t="str">
-        <f t="shared" ref="I96" si="57">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A96,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(444, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A96,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(444, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8609,20 +8613,20 @@
         <v>10</v>
       </c>
       <c r="F97" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(445,'Sonvilier');</v>
       </c>
       <c r="G97" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(445,'Sonvilier',10,20,10);</v>
       </c>
       <c r="H97" t="s">
         <v>356</v>
       </c>
       <c r="I97" s="12" t="str">
-        <f t="shared" ref="I97" si="58">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A97,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A97,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(445, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(445, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A97,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A97,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(445, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(445, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -8642,21 +8646,21 @@
         <v>30</v>
       </c>
       <c r="F98" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(446,'Tramelan');</v>
       </c>
       <c r="G98" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(446,'Tramelan',10,0,30);</v>
       </c>
       <c r="H98" t="s">
         <v>357</v>
       </c>
       <c r="I98" s="12" t="str">
-        <f t="shared" ref="I98" si="59">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A98,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A98,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A98,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(446, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(446, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(446, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A98,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A98,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A98,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(446, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(446, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(446, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -8676,25 +8680,25 @@
         <v>10</v>
       </c>
       <c r="F99" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(448,'Villeret');</v>
       </c>
       <c r="G99" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(448,'Villeret',0,20,10);</v>
       </c>
       <c r="H99" t="s">
         <v>358</v>
       </c>
       <c r="I99" s="12" t="str">
-        <f t="shared" ref="I99" si="60">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A99,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(448, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>449</v>
       </c>
@@ -8711,15 +8715,15 @@
         <v>10</v>
       </c>
       <c r="F100" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(449,'Sauge');</v>
       </c>
       <c r="G100" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(449,'Sauge',30,20,10);</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>450</v>
       </c>
@@ -8736,15 +8740,15 @@
         <v>10</v>
       </c>
       <c r="F101" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(450,'Péry-La Heutte');</v>
       </c>
       <c r="G101" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(450,'Péry-La Heutte',0,0,10);</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>491</v>
       </c>
@@ -8761,15 +8765,15 @@
         <v>10</v>
       </c>
       <c r="F102" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(491,'Brüttelen');</v>
       </c>
       <c r="G102" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(491,'Brüttelen',30,10,10);</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>492</v>
       </c>
@@ -8786,11 +8790,11 @@
         <v>10</v>
       </c>
       <c r="F103" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(492,'Erlach');</v>
       </c>
       <c r="G103" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(492,'Erlach',10,30,10);</v>
       </c>
     </row>
@@ -8811,19 +8815,19 @@
         <v>10</v>
       </c>
       <c r="F104" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(493,'Finsterhennen');</v>
       </c>
       <c r="G104" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(493,'Finsterhennen',10,30,10);</v>
       </c>
       <c r="H104" t="s">
         <v>351</v>
       </c>
       <c r="I104" s="12" t="str">
-        <f t="shared" ref="I104" si="61">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A104,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(493, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A104,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(493, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -8843,19 +8847,19 @@
         <v>30</v>
       </c>
       <c r="F105" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(494,'Gals');</v>
       </c>
       <c r="G105" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(494,'Gals',0,30,30);</v>
       </c>
       <c r="H105" t="s">
         <v>352</v>
       </c>
       <c r="I105" s="12" t="str">
-        <f t="shared" ref="I105" si="62">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A105,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(494, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A105,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(494, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8875,20 +8879,20 @@
         <v>10</v>
       </c>
       <c r="F106" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(495,'Gampelen');</v>
       </c>
       <c r="G106" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(495,'Gampelen',30,10,10);</v>
       </c>
       <c r="H106" t="s">
         <v>353</v>
       </c>
       <c r="I106" s="12" t="str">
-        <f t="shared" ref="I106" si="63">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A106,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A106,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(495, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(495, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A106,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A106,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(495, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(495, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -8908,19 +8912,19 @@
         <v>30</v>
       </c>
       <c r="F107" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(496,'Ins');</v>
       </c>
       <c r="G107" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(496,'Ins',10,20,30);</v>
       </c>
       <c r="H107" t="s">
         <v>354</v>
       </c>
       <c r="I107" s="12" t="str">
-        <f t="shared" ref="I107" si="64">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A107,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(496, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A107,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(496, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -8940,19 +8944,19 @@
         <v>30</v>
       </c>
       <c r="F108" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(497,'Lüscherz');</v>
       </c>
       <c r="G108" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(497,'Lüscherz',10,0,30);</v>
       </c>
       <c r="H108" t="s">
         <v>355</v>
       </c>
       <c r="I108" s="12" t="str">
-        <f t="shared" ref="I108" si="65">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A108,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(497, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A108,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(497, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8972,20 +8976,20 @@
         <v>20</v>
       </c>
       <c r="F109" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(498,'Müntschemier');</v>
       </c>
       <c r="G109" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(498,'Müntschemier',20,10,20);</v>
       </c>
       <c r="H109" t="s">
         <v>356</v>
       </c>
       <c r="I109" s="12" t="str">
-        <f t="shared" ref="I109" si="66">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A109,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A109,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(498, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(498, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A109,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A109,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(498, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(498, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -9005,21 +9009,21 @@
         <v>20</v>
       </c>
       <c r="F110" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(499,'Siselen');</v>
       </c>
       <c r="G110" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(499,'Siselen',0,20,20);</v>
       </c>
       <c r="H110" t="s">
         <v>357</v>
       </c>
       <c r="I110" s="12" t="str">
-        <f t="shared" ref="I110" si="67">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A110,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A110,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A110,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(499, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(499, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(499, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A110,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A110,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A110,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(499, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(499, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(499, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -9039,25 +9043,25 @@
         <v>20</v>
       </c>
       <c r="F111" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(500,'Treiten');</v>
       </c>
       <c r="G111" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(500,'Treiten',10,10,20);</v>
       </c>
       <c r="H111" t="s">
         <v>358</v>
       </c>
       <c r="I111" s="12" t="str">
-        <f t="shared" ref="I111" si="68">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A111,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(500, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>501</v>
       </c>
@@ -9074,15 +9078,15 @@
         <v>10</v>
       </c>
       <c r="F112" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(501,'Tschugg');</v>
       </c>
       <c r="G112" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(501,'Tschugg',0,10,10);</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>502</v>
       </c>
@@ -9099,15 +9103,15 @@
         <v>0</v>
       </c>
       <c r="F113" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(502,'Vinelz');</v>
       </c>
       <c r="G113" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(502,'Vinelz',20,20,0);</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>533</v>
       </c>
@@ -9124,15 +9128,15 @@
         <v>10</v>
       </c>
       <c r="F114" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(533,'Bätterkinden');</v>
       </c>
       <c r="G114" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(533,'Bätterkinden',0,30,10);</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>535</v>
       </c>
@@ -9149,11 +9153,11 @@
         <v>20</v>
       </c>
       <c r="F115" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(535,'Deisswil bei Münchenbuchsee');</v>
       </c>
       <c r="G115" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(535,'Deisswil bei Münchenbuchsee',30,20,20);</v>
       </c>
     </row>
@@ -9174,19 +9178,19 @@
         <v>0</v>
       </c>
       <c r="F116" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(536,'Diemerswil');</v>
       </c>
       <c r="G116" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(536,'Diemerswil',0,10,0);</v>
       </c>
       <c r="H116" t="s">
         <v>351</v>
       </c>
       <c r="I116" s="12" t="str">
-        <f t="shared" ref="I116" si="69">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A116,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(536, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A116,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(536, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -9206,19 +9210,19 @@
         <v>20</v>
       </c>
       <c r="F117" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(538,'Fraubrunnen');</v>
       </c>
       <c r="G117" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(538,'Fraubrunnen',20,0,20);</v>
       </c>
       <c r="H117" t="s">
         <v>352</v>
       </c>
       <c r="I117" s="12" t="str">
-        <f t="shared" ref="I117" si="70">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A117,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(538, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A117,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(538, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9238,20 +9242,20 @@
         <v>0</v>
       </c>
       <c r="F118" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(540,'Jegenstorf');</v>
       </c>
       <c r="G118" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(540,'Jegenstorf',20,10,0);</v>
       </c>
       <c r="H118" t="s">
         <v>353</v>
       </c>
       <c r="I118" s="12" t="str">
-        <f t="shared" ref="I118" si="71">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A118,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A118,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(540, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(540, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A118,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A118,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(540, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(540, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -9271,19 +9275,19 @@
         <v>10</v>
       </c>
       <c r="F119" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(541,'Iffwil');</v>
       </c>
       <c r="G119" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(541,'Iffwil',10,20,10);</v>
       </c>
       <c r="H119" t="s">
         <v>354</v>
       </c>
       <c r="I119" s="12" t="str">
-        <f t="shared" ref="I119" si="72">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A119,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(541, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A119,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(541, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -9303,19 +9307,19 @@
         <v>30</v>
       </c>
       <c r="F120" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(543,'Mattstetten');</v>
       </c>
       <c r="G120" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(543,'Mattstetten',10,30,30);</v>
       </c>
       <c r="H120" t="s">
         <v>355</v>
       </c>
       <c r="I120" s="12" t="str">
-        <f t="shared" ref="I120" si="73">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A120,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(543, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A120,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(543, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9335,20 +9339,20 @@
         <v>20</v>
       </c>
       <c r="F121" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(544,'Moosseedorf');</v>
       </c>
       <c r="G121" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(544,'Moosseedorf',0,20,20);</v>
       </c>
       <c r="H121" t="s">
         <v>356</v>
       </c>
       <c r="I121" s="12" t="str">
-        <f t="shared" ref="I121" si="74">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A121,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A121,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(544, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(544, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A121,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A121,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(544, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(544, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -9368,21 +9372,21 @@
         <v>20</v>
       </c>
       <c r="F122" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(546,'Münchenbuchsee');</v>
       </c>
       <c r="G122" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(546,'Münchenbuchsee',20,10,20);</v>
       </c>
       <c r="H122" t="s">
         <v>357</v>
       </c>
       <c r="I122" s="12" t="str">
-        <f t="shared" ref="I122" si="75">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A122,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A122,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A122,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(546, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(546, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(546, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A122,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A122,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A122,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(546, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(546, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(546, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -9402,25 +9406,25 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(551,'Urtenen-Schönbühl');</v>
       </c>
       <c r="G123" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(551,'Urtenen-Schönbühl',20,10,10);</v>
       </c>
       <c r="H123" t="s">
         <v>358</v>
       </c>
       <c r="I123" s="12" t="str">
-        <f t="shared" ref="I123" si="76">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A123,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(551, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>552</v>
       </c>
@@ -9437,15 +9441,15 @@
         <v>10</v>
       </c>
       <c r="F124" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(552,'Utzenstorf');</v>
       </c>
       <c r="G124" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(552,'Utzenstorf',0,20,10);</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>553</v>
       </c>
@@ -9462,15 +9466,15 @@
         <v>10</v>
       </c>
       <c r="F125" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(553,'Wiggiswil');</v>
       </c>
       <c r="G125" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(553,'Wiggiswil',30,20,10);</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>554</v>
       </c>
@@ -9487,15 +9491,15 @@
         <v>20</v>
       </c>
       <c r="F126" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(554,'Wiler bei Utzenstorf');</v>
       </c>
       <c r="G126" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(554,'Wiler bei Utzenstorf',10,10,20);</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>556</v>
       </c>
@@ -9512,11 +9516,11 @@
         <v>20</v>
       </c>
       <c r="F127" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(556,'Zielebach');</v>
       </c>
       <c r="G127" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(556,'Zielebach',30,10,20);</v>
       </c>
     </row>
@@ -9537,19 +9541,19 @@
         <v>20</v>
       </c>
       <c r="F128" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(557,'Zuzwil (BE)');</v>
       </c>
       <c r="G128" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(557,'Zuzwil (BE)',10,20,20);</v>
       </c>
       <c r="H128" t="s">
         <v>351</v>
       </c>
       <c r="I128" s="12" t="str">
-        <f t="shared" ref="I128" si="77">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A128,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(557, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A128,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(557, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -9569,19 +9573,19 @@
         <v>30</v>
       </c>
       <c r="F129" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(561,'Adelboden');</v>
       </c>
       <c r="G129" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(561,'Adelboden',20,20,30);</v>
       </c>
       <c r="H129" t="s">
         <v>352</v>
       </c>
       <c r="I129" s="12" t="str">
-        <f t="shared" ref="I129" si="78">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A129,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(561, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A129,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(561, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9601,20 +9605,20 @@
         <v>10</v>
       </c>
       <c r="F130" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(562,'Aeschi bei Spiez');</v>
       </c>
       <c r="G130" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(562,'Aeschi bei Spiez',20,10,10);</v>
       </c>
       <c r="H130" t="s">
         <v>353</v>
       </c>
       <c r="I130" s="12" t="str">
-        <f t="shared" ref="I130" si="79">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A130,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A130,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(562, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(562, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A130,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A130,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(562, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(562, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -9634,19 +9638,19 @@
         <v>10</v>
       </c>
       <c r="F131" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(563,'Frutigen');</v>
       </c>
       <c r="G131" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(563,'Frutigen',30,20,10);</v>
       </c>
       <c r="H131" t="s">
         <v>354</v>
       </c>
       <c r="I131" s="12" t="str">
-        <f t="shared" ref="I131" si="80">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A131,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(563, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A131,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(563, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -9666,19 +9670,19 @@
         <v>20</v>
       </c>
       <c r="F132" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(564,'Kandergrund');</v>
       </c>
       <c r="G132" s="11" t="str">
-        <f t="shared" ref="G132:G195" si="81">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A132,",'",B132,"',",C132,",",D132,",",E132,");")</f>
+        <f t="shared" ref="G132:G195" si="5">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A132,",'",B132,"',",C132,",",D132,",",E132,");")</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(564,'Kandergrund',10,20,20);</v>
       </c>
       <c r="H132" t="s">
         <v>355</v>
       </c>
       <c r="I132" s="12" t="str">
-        <f t="shared" ref="I132" si="82">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A132,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(564, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A132,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(564, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9698,20 +9702,20 @@
         <v>20</v>
       </c>
       <c r="F133" s="11" t="str">
-        <f t="shared" ref="F133:F196" si="83">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A133&amp;",'"&amp;B133&amp;"');"</f>
+        <f t="shared" ref="F133:F196" si="6">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A133&amp;",'"&amp;B133&amp;"');"</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(565,'Kandersteg');</v>
       </c>
       <c r="G133" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(565,'Kandersteg',20,20,20);</v>
       </c>
       <c r="H133" t="s">
         <v>356</v>
       </c>
       <c r="I133" s="12" t="str">
-        <f t="shared" ref="I133" si="84">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A133,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A133,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(565, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(565, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A133,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A133,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(565, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(565, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -9731,21 +9735,21 @@
         <v>20</v>
       </c>
       <c r="F134" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(566,'Krattigen');</v>
       </c>
       <c r="G134" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(566,'Krattigen',10,10,20);</v>
       </c>
       <c r="H134" t="s">
         <v>357</v>
       </c>
       <c r="I134" s="12" t="str">
-        <f t="shared" ref="I134" si="85">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A134,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A134,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A134,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(566, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(566, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(566, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A134,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A134,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A134,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(566, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(566, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(566, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -9765,25 +9769,25 @@
         <v>0</v>
       </c>
       <c r="F135" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(567,'Reichenbach im Kandertal');</v>
       </c>
       <c r="G135" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(567,'Reichenbach im Kandertal',10,20,0);</v>
       </c>
       <c r="H135" t="s">
         <v>358</v>
       </c>
       <c r="I135" s="12" t="str">
-        <f t="shared" ref="I135" si="86">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A135,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(567, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>571</v>
       </c>
@@ -9800,15 +9804,15 @@
         <v>0</v>
       </c>
       <c r="F136" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(571,'Beatenberg');</v>
       </c>
       <c r="G136" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(571,'Beatenberg',20,20,0);</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>572</v>
       </c>
@@ -9825,15 +9829,15 @@
         <v>10</v>
       </c>
       <c r="F137" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(572,'Bönigen');</v>
       </c>
       <c r="G137" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(572,'Bönigen',10,0,10);</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>573</v>
       </c>
@@ -9850,15 +9854,15 @@
         <v>20</v>
       </c>
       <c r="F138" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(573,'Brienz (BE)');</v>
       </c>
       <c r="G138" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(573,'Brienz (BE)',20,20,20);</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>574</v>
       </c>
@@ -9875,11 +9879,11 @@
         <v>20</v>
       </c>
       <c r="F139" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(574,'Brienzwiler');</v>
       </c>
       <c r="G139" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(574,'Brienzwiler',10,10,20);</v>
       </c>
     </row>
@@ -9900,19 +9904,19 @@
         <v>30</v>
       </c>
       <c r="F140" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(575,'Därligen');</v>
       </c>
       <c r="G140" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(575,'Därligen',10,20,30);</v>
       </c>
       <c r="H140" t="s">
         <v>351</v>
       </c>
       <c r="I140" s="12" t="str">
-        <f t="shared" ref="I140" si="87">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A140,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(575, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A140,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(575, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -9932,19 +9936,19 @@
         <v>10</v>
       </c>
       <c r="F141" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(576,'Grindelwald');</v>
       </c>
       <c r="G141" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(576,'Grindelwald',0,10,10);</v>
       </c>
       <c r="H141" t="s">
         <v>352</v>
       </c>
       <c r="I141" s="12" t="str">
-        <f t="shared" ref="I141" si="88">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A141,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(576, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A141,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(576, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9964,20 +9968,20 @@
         <v>0</v>
       </c>
       <c r="F142" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(577,'Gsteigwiler');</v>
       </c>
       <c r="G142" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(577,'Gsteigwiler',0,10,0);</v>
       </c>
       <c r="H142" t="s">
         <v>353</v>
       </c>
       <c r="I142" s="12" t="str">
-        <f t="shared" ref="I142" si="89">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A142,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A142,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(577, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(577, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A142,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A142,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(577, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(577, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -9997,19 +10001,19 @@
         <v>30</v>
       </c>
       <c r="F143" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(578,'Gündlischwand');</v>
       </c>
       <c r="G143" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(578,'Gündlischwand',10,0,30);</v>
       </c>
       <c r="H143" t="s">
         <v>354</v>
       </c>
       <c r="I143" s="12" t="str">
-        <f t="shared" ref="I143" si="90">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A143,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(578, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A143,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(578, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -10029,19 +10033,19 @@
         <v>0</v>
       </c>
       <c r="F144" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(579,'Habkern');</v>
       </c>
       <c r="G144" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(579,'Habkern',20,30,0);</v>
       </c>
       <c r="H144" t="s">
         <v>355</v>
       </c>
       <c r="I144" s="12" t="str">
-        <f t="shared" ref="I144" si="91">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A144,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(579, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A144,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(579, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10061,20 +10065,20 @@
         <v>30</v>
       </c>
       <c r="F145" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(580,'Hofstetten bei Brienz');</v>
       </c>
       <c r="G145" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(580,'Hofstetten bei Brienz',10,30,30);</v>
       </c>
       <c r="H145" t="s">
         <v>356</v>
       </c>
       <c r="I145" s="12" t="str">
-        <f t="shared" ref="I145" si="92">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A145,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A145,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(580, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(580, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A145,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A145,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(580, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(580, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -10094,21 +10098,21 @@
         <v>0</v>
       </c>
       <c r="F146" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(581,'Interlaken');</v>
       </c>
       <c r="G146" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(581,'Interlaken',20,10,0);</v>
       </c>
       <c r="H146" t="s">
         <v>357</v>
       </c>
       <c r="I146" s="12" t="str">
-        <f t="shared" ref="I146" si="93">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A146,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A146,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A146,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(581, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(581, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(581, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A146,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A146,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A146,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(581, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(581, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(581, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -10128,25 +10132,25 @@
         <v>10</v>
       </c>
       <c r="F147" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(582,'Iseltwald');</v>
       </c>
       <c r="G147" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(582,'Iseltwald',20,20,10);</v>
       </c>
       <c r="H147" t="s">
         <v>358</v>
       </c>
       <c r="I147" s="12" t="str">
-        <f t="shared" ref="I147" si="94">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A147,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(582, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>584</v>
       </c>
@@ -10163,15 +10167,15 @@
         <v>10</v>
       </c>
       <c r="F148" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(584,'Lauterbrunnen');</v>
       </c>
       <c r="G148" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(584,'Lauterbrunnen',20,0,10);</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>585</v>
       </c>
@@ -10188,15 +10192,15 @@
         <v>30</v>
       </c>
       <c r="F149" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(585,'Leissigen');</v>
       </c>
       <c r="G149" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(585,'Leissigen',10,10,30);</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>586</v>
       </c>
@@ -10213,15 +10217,15 @@
         <v>0</v>
       </c>
       <c r="F150" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(586,'Lütschental');</v>
       </c>
       <c r="G150" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(586,'Lütschental',20,20,0);</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>587</v>
       </c>
@@ -10238,11 +10242,11 @@
         <v>0</v>
       </c>
       <c r="F151" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(587,'Matten bei Interlaken');</v>
       </c>
       <c r="G151" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(587,'Matten bei Interlaken',30,0,0);</v>
       </c>
     </row>
@@ -10263,19 +10267,19 @@
         <v>30</v>
       </c>
       <c r="F152" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(588,'Niederried bei Interlaken');</v>
       </c>
       <c r="G152" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(588,'Niederried bei Interlaken',20,10,30);</v>
       </c>
       <c r="H152" t="s">
         <v>351</v>
       </c>
       <c r="I152" s="12" t="str">
-        <f t="shared" ref="I152" si="95">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A152,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(588, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A152,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(588, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -10295,19 +10299,19 @@
         <v>10</v>
       </c>
       <c r="F153" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(589,'Oberried am Brienzersee');</v>
       </c>
       <c r="G153" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(589,'Oberried am Brienzersee',0,20,10);</v>
       </c>
       <c r="H153" t="s">
         <v>352</v>
       </c>
       <c r="I153" s="12" t="str">
-        <f t="shared" ref="I153" si="96">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A153,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(589, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A153,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(589, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10327,20 +10331,20 @@
         <v>20</v>
       </c>
       <c r="F154" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(590,'Ringgenberg (BE)');</v>
       </c>
       <c r="G154" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(590,'Ringgenberg (BE)',30,10,20);</v>
       </c>
       <c r="H154" t="s">
         <v>353</v>
       </c>
       <c r="I154" s="12" t="str">
-        <f t="shared" ref="I154" si="97">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A154,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A154,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(590, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(590, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A154,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A154,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(590, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(590, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -10360,19 +10364,19 @@
         <v>10</v>
       </c>
       <c r="F155" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(591,'Saxeten');</v>
       </c>
       <c r="G155" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(591,'Saxeten',10,10,10);</v>
       </c>
       <c r="H155" t="s">
         <v>354</v>
       </c>
       <c r="I155" s="12" t="str">
-        <f t="shared" ref="I155" si="98">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A155,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(591, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A155,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(591, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -10392,19 +10396,19 @@
         <v>10</v>
       </c>
       <c r="F156" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(592,'Schwanden bei Brienz');</v>
       </c>
       <c r="G156" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(592,'Schwanden bei Brienz',10,10,10);</v>
       </c>
       <c r="H156" t="s">
         <v>355</v>
       </c>
       <c r="I156" s="12" t="str">
-        <f t="shared" ref="I156" si="99">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A156,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(592, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A156,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(592, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10424,20 +10428,20 @@
         <v>0</v>
       </c>
       <c r="F157" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(593,'Unterseen');</v>
       </c>
       <c r="G157" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(593,'Unterseen',20,30,0);</v>
       </c>
       <c r="H157" t="s">
         <v>356</v>
       </c>
       <c r="I157" s="12" t="str">
-        <f t="shared" ref="I157" si="100">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A157,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A157,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(593, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(593, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A157,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A157,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(593, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(593, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -10457,21 +10461,21 @@
         <v>10</v>
       </c>
       <c r="F158" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(594,'Wilderswil');</v>
       </c>
       <c r="G158" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(594,'Wilderswil',30,0,10);</v>
       </c>
       <c r="H158" t="s">
         <v>357</v>
       </c>
       <c r="I158" s="12" t="str">
-        <f t="shared" ref="I158" si="101">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A158,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A158,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A158,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(594, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(594, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(594, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A158,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A158,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A158,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(594, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(594, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(594, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -10491,25 +10495,25 @@
         <v>10</v>
       </c>
       <c r="F159" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(602,'Arni (BE)');</v>
       </c>
       <c r="G159" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(602,'Arni (BE)',30,20,10);</v>
       </c>
       <c r="H159" t="s">
         <v>358</v>
       </c>
       <c r="I159" s="12" t="str">
-        <f t="shared" ref="I159" si="102">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A159,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(602, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>603</v>
       </c>
@@ -10526,15 +10530,15 @@
         <v>0</v>
       </c>
       <c r="F160" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(603,'Biglen');</v>
       </c>
       <c r="G160" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(603,'Biglen',30,20,0);</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>605</v>
       </c>
@@ -10551,15 +10555,15 @@
         <v>10</v>
       </c>
       <c r="F161" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(605,'Bowil');</v>
       </c>
       <c r="G161" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(605,'Bowil',30,10,10);</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>606</v>
       </c>
@@ -10576,15 +10580,15 @@
         <v>0</v>
       </c>
       <c r="F162" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(606,'Brenzikofen');</v>
       </c>
       <c r="G162" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(606,'Brenzikofen',0,30,0);</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>607</v>
       </c>
@@ -10601,11 +10605,11 @@
         <v>20</v>
       </c>
       <c r="F163" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(607,'Freimettigen');</v>
       </c>
       <c r="G163" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(607,'Freimettigen',0,30,20);</v>
       </c>
     </row>
@@ -10626,19 +10630,19 @@
         <v>20</v>
       </c>
       <c r="F164" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(608,'Grosshöchstetten');</v>
       </c>
       <c r="G164" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(608,'Grosshöchstetten',0,20,20);</v>
       </c>
       <c r="H164" t="s">
         <v>351</v>
       </c>
       <c r="I164" s="12" t="str">
-        <f t="shared" ref="I164" si="103">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A164,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(608, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A164,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(608, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -10658,19 +10662,19 @@
         <v>20</v>
       </c>
       <c r="F165" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(609,'Häutligen');</v>
       </c>
       <c r="G165" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(609,'Häutligen',0,20,20);</v>
       </c>
       <c r="H165" t="s">
         <v>352</v>
       </c>
       <c r="I165" s="12" t="str">
-        <f t="shared" ref="I165" si="104">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A165,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(609, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A165,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(609, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10690,20 +10694,20 @@
         <v>20</v>
       </c>
       <c r="F166" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(610,'Herbligen');</v>
       </c>
       <c r="G166" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(610,'Herbligen',20,0,20);</v>
       </c>
       <c r="H166" t="s">
         <v>353</v>
       </c>
       <c r="I166" s="12" t="str">
-        <f t="shared" ref="I166" si="105">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A166,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A166,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(610, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(610, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A166,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A166,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(610, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(610, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -10723,19 +10727,19 @@
         <v>10</v>
       </c>
       <c r="F167" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(611,'Kiesen');</v>
       </c>
       <c r="G167" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(611,'Kiesen',10,30,10);</v>
       </c>
       <c r="H167" t="s">
         <v>354</v>
       </c>
       <c r="I167" s="12" t="str">
-        <f t="shared" ref="I167" si="106">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A167,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(611, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A167,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(611, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -10755,19 +10759,19 @@
         <v>10</v>
       </c>
       <c r="F168" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(612,'Konolfingen');</v>
       </c>
       <c r="G168" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(612,'Konolfingen',10,0,10);</v>
       </c>
       <c r="H168" t="s">
         <v>355</v>
       </c>
       <c r="I168" s="12" t="str">
-        <f t="shared" ref="I168" si="107">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A168,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(612, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A168,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(612, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10787,20 +10791,20 @@
         <v>20</v>
       </c>
       <c r="F169" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(613,'Landiswil');</v>
       </c>
       <c r="G169" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(613,'Landiswil',20,0,20);</v>
       </c>
       <c r="H169" t="s">
         <v>356</v>
       </c>
       <c r="I169" s="12" t="str">
-        <f t="shared" ref="I169" si="108">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A169,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A169,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(613, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(613, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A169,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A169,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(613, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(613, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -10820,21 +10824,21 @@
         <v>10</v>
       </c>
       <c r="F170" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(614,'Linden');</v>
       </c>
       <c r="G170" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(614,'Linden',10,0,10);</v>
       </c>
       <c r="H170" t="s">
         <v>357</v>
       </c>
       <c r="I170" s="12" t="str">
-        <f t="shared" ref="I170" si="109">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A170,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A170,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A170,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(614, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(614, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(614, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A170,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A170,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A170,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(614, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(614, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(614, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -10854,25 +10858,25 @@
         <v>20</v>
       </c>
       <c r="F171" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(615,'Mirchel');</v>
       </c>
       <c r="G171" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(615,'Mirchel',20,0,20);</v>
       </c>
       <c r="H171" t="s">
         <v>358</v>
       </c>
       <c r="I171" s="12" t="str">
-        <f t="shared" ref="I171" si="110">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A171,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(615, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>616</v>
       </c>
@@ -10889,15 +10893,15 @@
         <v>30</v>
       </c>
       <c r="F172" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(616,'Münsingen');</v>
       </c>
       <c r="G172" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(616,'Münsingen',0,20,30);</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>617</v>
       </c>
@@ -10914,15 +10918,15 @@
         <v>10</v>
       </c>
       <c r="F173" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(617,'Niederhünigen');</v>
       </c>
       <c r="G173" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(617,'Niederhünigen',30,30,10);</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>619</v>
       </c>
@@ -10939,15 +10943,15 @@
         <v>20</v>
       </c>
       <c r="F174" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(619,'Oberdiessbach');</v>
       </c>
       <c r="G174" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(619,'Oberdiessbach',10,30,20);</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>620</v>
       </c>
@@ -10964,11 +10968,11 @@
         <v>10</v>
       </c>
       <c r="F175" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(620,'Oberthal');</v>
       </c>
       <c r="G175" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(620,'Oberthal',10,0,10);</v>
       </c>
     </row>
@@ -10989,19 +10993,19 @@
         <v>10</v>
       </c>
       <c r="F176" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(622,'Oppligen');</v>
       </c>
       <c r="G176" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(622,'Oppligen',10,30,10);</v>
       </c>
       <c r="H176" t="s">
         <v>351</v>
       </c>
       <c r="I176" s="12" t="str">
-        <f t="shared" ref="I176" si="111">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A176,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(622, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A176,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(622, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -11021,19 +11025,19 @@
         <v>10</v>
       </c>
       <c r="F177" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(623,'Rubigen');</v>
       </c>
       <c r="G177" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(623,'Rubigen',20,10,10);</v>
       </c>
       <c r="H177" t="s">
         <v>352</v>
       </c>
       <c r="I177" s="12" t="str">
-        <f t="shared" ref="I177" si="112">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A177,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(623, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A177,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(623, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -11053,20 +11057,20 @@
         <v>30</v>
       </c>
       <c r="F178" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(624,'Schlosswil');</v>
       </c>
       <c r="G178" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(624,'Schlosswil',0,10,30);</v>
       </c>
       <c r="H178" t="s">
         <v>353</v>
       </c>
       <c r="I178" s="12" t="str">
-        <f t="shared" ref="I178" si="113">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A178,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A178,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(624, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(624, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A178,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A178,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(624, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(624, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -11086,19 +11090,19 @@
         <v>20</v>
       </c>
       <c r="F179" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(626,'Walkringen');</v>
       </c>
       <c r="G179" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(626,'Walkringen',20,20,20);</v>
       </c>
       <c r="H179" t="s">
         <v>354</v>
       </c>
       <c r="I179" s="12" t="str">
-        <f t="shared" ref="I179" si="114">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A179,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(626, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A179,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(626, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -11118,19 +11122,19 @@
         <v>0</v>
       </c>
       <c r="F180" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(627,'Worb');</v>
       </c>
       <c r="G180" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(627,'Worb',30,20,0);</v>
       </c>
       <c r="H180" t="s">
         <v>355</v>
       </c>
       <c r="I180" s="12" t="str">
-        <f t="shared" ref="I180" si="115">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A180,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(627, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A180,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(627, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -11150,20 +11154,20 @@
         <v>10</v>
       </c>
       <c r="F181" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(628,'Zäziwil');</v>
       </c>
       <c r="G181" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(628,'Zäziwil',0,10,10);</v>
       </c>
       <c r="H181" t="s">
         <v>356</v>
       </c>
       <c r="I181" s="12" t="str">
-        <f t="shared" ref="I181" si="116">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A181,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A181,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(628, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(628, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A181,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A181,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(628, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(628, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -11183,21 +11187,21 @@
         <v>10</v>
       </c>
       <c r="F182" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(629,'Oberhünigen');</v>
       </c>
       <c r="G182" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(629,'Oberhünigen',0,0,10);</v>
       </c>
       <c r="H182" t="s">
         <v>357</v>
       </c>
       <c r="I182" s="12" t="str">
-        <f t="shared" ref="I182" si="117">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A182,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A182,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A182,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(629, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(629, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(629, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A182,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A182,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A182,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(629, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(629, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(629, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -11217,25 +11221,25 @@
         <v>10</v>
       </c>
       <c r="F183" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(630,'Allmendingen');</v>
       </c>
       <c r="G183" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(630,'Allmendingen',30,30,10);</v>
       </c>
       <c r="H183" t="s">
         <v>358</v>
       </c>
       <c r="I183" s="12" t="str">
-        <f t="shared" ref="I183" si="118">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A183,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(630, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>632</v>
       </c>
@@ -11252,15 +11256,15 @@
         <v>20</v>
       </c>
       <c r="F184" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(632,'Wichtrach');</v>
       </c>
       <c r="G184" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(632,'Wichtrach',20,10,20);</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>661</v>
       </c>
@@ -11277,15 +11281,15 @@
         <v>10</v>
       </c>
       <c r="F185" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(661,'Clavaleyres');</v>
       </c>
       <c r="G185" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(661,'Clavaleyres',10,20,10);</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>662</v>
       </c>
@@ -11302,15 +11306,15 @@
         <v>20</v>
       </c>
       <c r="F186" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(662,'Ferenbalm');</v>
       </c>
       <c r="G186" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(662,'Ferenbalm',10,10,20);</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>663</v>
       </c>
@@ -11327,11 +11331,11 @@
         <v>30</v>
       </c>
       <c r="F187" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(663,'Frauenkappelen');</v>
       </c>
       <c r="G187" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(663,'Frauenkappelen',10,20,30);</v>
       </c>
     </row>
@@ -11352,19 +11356,19 @@
         <v>20</v>
       </c>
       <c r="F188" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(664,'Golaten');</v>
       </c>
       <c r="G188" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(664,'Golaten',30,20,20);</v>
       </c>
       <c r="H188" t="s">
         <v>351</v>
       </c>
       <c r="I188" s="12" t="str">
-        <f t="shared" ref="I188" si="119">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A188,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(664, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A188,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(664, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -11384,19 +11388,19 @@
         <v>20</v>
       </c>
       <c r="F189" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(665,'Gurbrü');</v>
       </c>
       <c r="G189" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(665,'Gurbrü',20,0,20);</v>
       </c>
       <c r="H189" t="s">
         <v>352</v>
       </c>
       <c r="I189" s="12" t="str">
-        <f t="shared" ref="I189" si="120">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A189,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(665, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A189,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(665, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -11416,20 +11420,20 @@
         <v>0</v>
       </c>
       <c r="F190" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(666,'Kriechenwil');</v>
       </c>
       <c r="G190" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(666,'Kriechenwil',10,30,0);</v>
       </c>
       <c r="H190" t="s">
         <v>353</v>
       </c>
       <c r="I190" s="12" t="str">
-        <f t="shared" ref="I190" si="121">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A190,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A190,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(666, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(666, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A190,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A190,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(666, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(666, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -11449,19 +11453,19 @@
         <v>10</v>
       </c>
       <c r="F191" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(667,'Laupen');</v>
       </c>
       <c r="G191" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(667,'Laupen',20,10,10);</v>
       </c>
       <c r="H191" t="s">
         <v>354</v>
       </c>
       <c r="I191" s="12" t="str">
-        <f t="shared" ref="I191" si="122">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A191,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(667, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A191,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(667, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -11481,19 +11485,19 @@
         <v>0</v>
       </c>
       <c r="F192" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(668,'Mühleberg');</v>
       </c>
       <c r="G192" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(668,'Mühleberg',10,10,0);</v>
       </c>
       <c r="H192" t="s">
         <v>355</v>
       </c>
       <c r="I192" s="12" t="str">
-        <f t="shared" ref="I192" si="123">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A192,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(668, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A192,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(668, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -11513,20 +11517,20 @@
         <v>10</v>
       </c>
       <c r="F193" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(669,'Münchenwiler');</v>
       </c>
       <c r="G193" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(669,'Münchenwiler',20,20,10);</v>
       </c>
       <c r="H193" t="s">
         <v>356</v>
       </c>
       <c r="I193" s="12" t="str">
-        <f t="shared" ref="I193" si="124">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A193,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A193,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(669, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(669, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A193,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A193,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(669, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(669, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -11546,21 +11550,21 @@
         <v>20</v>
       </c>
       <c r="F194" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(670,'Neuenegg');</v>
       </c>
       <c r="G194" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(670,'Neuenegg',30,30,20);</v>
       </c>
       <c r="H194" t="s">
         <v>357</v>
       </c>
       <c r="I194" s="12" t="str">
-        <f t="shared" ref="I194" si="125">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A194,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A194,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A194,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(670, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(670, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(670, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A194,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A194,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A194,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(670, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(670, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(670, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -11580,25 +11584,25 @@
         <v>20</v>
       </c>
       <c r="F195" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(671,'Wileroltigen');</v>
       </c>
       <c r="G195" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(671,'Wileroltigen',10,0,20);</v>
       </c>
       <c r="H195" t="s">
         <v>358</v>
       </c>
       <c r="I195" s="12" t="str">
-        <f t="shared" ref="I195" si="126">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A195,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(671, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>681</v>
       </c>
@@ -11615,15 +11619,15 @@
         <v>20</v>
       </c>
       <c r="F196" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(681,'Belprahon');</v>
       </c>
       <c r="G196" s="11" t="str">
-        <f t="shared" ref="G196:G259" si="127">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A196,",'",B196,"',",C196,",",D196,",",E196,");")</f>
+        <f t="shared" ref="G196:G259" si="7">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A196,",'",B196,"',",C196,",",D196,",",E196,");")</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(681,'Belprahon',10,20,20);</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>683</v>
       </c>
@@ -11640,15 +11644,15 @@
         <v>20</v>
       </c>
       <c r="F197" s="11" t="str">
-        <f t="shared" ref="F197:F260" si="128">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A197&amp;",'"&amp;B197&amp;"');"</f>
+        <f t="shared" ref="F197:F260" si="8">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A197&amp;",'"&amp;B197&amp;"');"</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(683,'Champoz');</v>
       </c>
       <c r="G197" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(683,'Champoz',30,20,20);</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>687</v>
       </c>
@@ -11665,15 +11669,15 @@
         <v>0</v>
       </c>
       <c r="F198" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(687,'Corcelles (BE)');</v>
       </c>
       <c r="G198" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(687,'Corcelles (BE)',30,30,0);</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>690</v>
       </c>
@@ -11690,11 +11694,11 @@
         <v>20</v>
       </c>
       <c r="F199" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(690,'Court');</v>
       </c>
       <c r="G199" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(690,'Court',20,20,20);</v>
       </c>
     </row>
@@ -11715,19 +11719,19 @@
         <v>20</v>
       </c>
       <c r="F200" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(691,'Crémines');</v>
       </c>
       <c r="G200" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(691,'Crémines',20,10,20);</v>
       </c>
       <c r="H200" t="s">
         <v>351</v>
       </c>
       <c r="I200" s="12" t="str">
-        <f t="shared" ref="I200" si="129">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A200,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(691, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A200,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(691, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -11747,19 +11751,19 @@
         <v>30</v>
       </c>
       <c r="F201" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(692,'Eschert');</v>
       </c>
       <c r="G201" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(692,'Eschert',20,10,30);</v>
       </c>
       <c r="H201" t="s">
         <v>352</v>
       </c>
       <c r="I201" s="12" t="str">
-        <f t="shared" ref="I201" si="130">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A201,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(692, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A201,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(692, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -11779,20 +11783,20 @@
         <v>10</v>
       </c>
       <c r="F202" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(694,'Grandval');</v>
       </c>
       <c r="G202" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(694,'Grandval',0,20,10);</v>
       </c>
       <c r="H202" t="s">
         <v>353</v>
       </c>
       <c r="I202" s="12" t="str">
-        <f t="shared" ref="I202" si="131">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A202,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A202,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(694, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(694, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A202,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A202,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(694, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(694, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -11812,19 +11816,19 @@
         <v>10</v>
       </c>
       <c r="F203" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(696,'Loveresse');</v>
       </c>
       <c r="G203" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(696,'Loveresse',20,20,10);</v>
       </c>
       <c r="H203" t="s">
         <v>354</v>
       </c>
       <c r="I203" s="12" t="str">
-        <f t="shared" ref="I203" si="132">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A203,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(696, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A203,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(696, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -11844,19 +11848,19 @@
         <v>20</v>
       </c>
       <c r="F204" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(700,'Moutier');</v>
       </c>
       <c r="G204" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(700,'Moutier',20,0,20);</v>
       </c>
       <c r="H204" t="s">
         <v>355</v>
       </c>
       <c r="I204" s="12" t="str">
-        <f t="shared" ref="I204" si="133">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A204,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(700, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A204,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(700, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -11876,20 +11880,20 @@
         <v>10</v>
       </c>
       <c r="F205" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(701,'Perrefitte');</v>
       </c>
       <c r="G205" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(701,'Perrefitte',0,20,10);</v>
       </c>
       <c r="H205" t="s">
         <v>356</v>
       </c>
       <c r="I205" s="12" t="str">
-        <f t="shared" ref="I205" si="134">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A205,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A205,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(701, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(701, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A205,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A205,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(701, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(701, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -11909,21 +11913,21 @@
         <v>0</v>
       </c>
       <c r="F206" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(703,'Reconvilier');</v>
       </c>
       <c r="G206" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(703,'Reconvilier',0,10,0);</v>
       </c>
       <c r="H206" t="s">
         <v>357</v>
       </c>
       <c r="I206" s="12" t="str">
-        <f t="shared" ref="I206" si="135">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A206,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A206,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A206,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(703, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(703, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(703, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A206,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A206,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A206,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(703, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(703, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(703, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -11943,25 +11947,25 @@
         <v>10</v>
       </c>
       <c r="F207" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(704,'Roches (BE)');</v>
       </c>
       <c r="G207" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(704,'Roches (BE)',20,0,10);</v>
       </c>
       <c r="H207" t="s">
         <v>358</v>
       </c>
       <c r="I207" s="12" t="str">
-        <f t="shared" ref="I207" si="136">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A207,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(704, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>706</v>
       </c>
@@ -11978,15 +11982,15 @@
         <v>20</v>
       </c>
       <c r="F208" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(706,'Saicourt');</v>
       </c>
       <c r="G208" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(706,'Saicourt',0,0,20);</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>707</v>
       </c>
@@ -12003,15 +12007,15 @@
         <v>20</v>
       </c>
       <c r="F209" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(707,'Saules (BE)');</v>
       </c>
       <c r="G209" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(707,'Saules (BE)',10,20,20);</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>708</v>
       </c>
@@ -12028,15 +12032,15 @@
         <v>30</v>
       </c>
       <c r="F210" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(708,'Schelten');</v>
       </c>
       <c r="G210" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(708,'Schelten',0,30,30);</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>709</v>
       </c>
@@ -12053,11 +12057,11 @@
         <v>20</v>
       </c>
       <c r="F211" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(709,'Seehof');</v>
       </c>
       <c r="G211" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(709,'Seehof',30,20,20);</v>
       </c>
     </row>
@@ -12078,19 +12082,19 @@
         <v>10</v>
       </c>
       <c r="F212" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(711,'Sorvilier');</v>
       </c>
       <c r="G212" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(711,'Sorvilier',10,20,10);</v>
       </c>
       <c r="H212" t="s">
         <v>351</v>
       </c>
       <c r="I212" s="12" t="str">
-        <f t="shared" ref="I212" si="137">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A212,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(711, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A212,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(711, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -12110,19 +12114,19 @@
         <v>30</v>
       </c>
       <c r="F213" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(713,'Tavannes');</v>
       </c>
       <c r="G213" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(713,'Tavannes',10,10,30);</v>
       </c>
       <c r="H213" t="s">
         <v>352</v>
       </c>
       <c r="I213" s="12" t="str">
-        <f t="shared" ref="I213" si="138">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A213,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(713, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A213,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(713, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12142,20 +12146,20 @@
         <v>10</v>
       </c>
       <c r="F214" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(715,'Rebévelier');</v>
       </c>
       <c r="G214" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(715,'Rebévelier',20,30,10);</v>
       </c>
       <c r="H214" t="s">
         <v>353</v>
       </c>
       <c r="I214" s="12" t="str">
-        <f t="shared" ref="I214" si="139">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A214,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A214,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(715, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(715, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A214,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A214,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(715, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(715, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -12175,19 +12179,19 @@
         <v>20</v>
       </c>
       <c r="F215" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(716,'Petit-Val');</v>
       </c>
       <c r="G215" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(716,'Petit-Val',20,30,20);</v>
       </c>
       <c r="H215" t="s">
         <v>354</v>
       </c>
       <c r="I215" s="12" t="str">
-        <f t="shared" ref="I215" si="140">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A215,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(716, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A215,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(716, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -12207,19 +12211,19 @@
         <v>20</v>
       </c>
       <c r="F216" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(717,'Valbirse');</v>
       </c>
       <c r="G216" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(717,'Valbirse',10,20,20);</v>
       </c>
       <c r="H216" t="s">
         <v>355</v>
       </c>
       <c r="I216" s="12" t="str">
-        <f t="shared" ref="I216" si="141">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A216,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(717, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A216,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(717, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12239,20 +12243,20 @@
         <v>20</v>
       </c>
       <c r="F217" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(723,'La Neuveville');</v>
       </c>
       <c r="G217" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(723,'La Neuveville',10,20,20);</v>
       </c>
       <c r="H217" t="s">
         <v>356</v>
       </c>
       <c r="I217" s="12" t="str">
-        <f t="shared" ref="I217" si="142">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A217,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A217,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(723, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(723, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A217,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A217,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(723, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(723, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -12272,21 +12276,21 @@
         <v>30</v>
       </c>
       <c r="F218" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(724,'Nods');</v>
       </c>
       <c r="G218" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(724,'Nods',10,0,30);</v>
       </c>
       <c r="H218" t="s">
         <v>357</v>
       </c>
       <c r="I218" s="12" t="str">
-        <f t="shared" ref="I218" si="143">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A218,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A218,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A218,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(724, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(724, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(724, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A218,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A218,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A218,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(724, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(724, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(724, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -12306,25 +12310,25 @@
         <v>30</v>
       </c>
       <c r="F219" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(726,'Plateau de Diesse');</v>
       </c>
       <c r="G219" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(726,'Plateau de Diesse',20,20,30);</v>
       </c>
       <c r="H219" t="s">
         <v>358</v>
       </c>
       <c r="I219" s="12" t="str">
-        <f t="shared" ref="I219" si="144">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A219,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(726, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>731</v>
       </c>
@@ -12341,15 +12345,15 @@
         <v>10</v>
       </c>
       <c r="F220" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(731,'Aegerten');</v>
       </c>
       <c r="G220" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(731,'Aegerten',30,30,10);</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>732</v>
       </c>
@@ -12366,15 +12370,15 @@
         <v>0</v>
       </c>
       <c r="F221" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(732,'Bellmund');</v>
       </c>
       <c r="G221" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(732,'Bellmund',10,20,0);</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>733</v>
       </c>
@@ -12391,15 +12395,15 @@
         <v>20</v>
       </c>
       <c r="F222" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(733,'Brügg');</v>
       </c>
       <c r="G222" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(733,'Brügg',30,30,20);</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>734</v>
       </c>
@@ -12416,11 +12420,11 @@
         <v>20</v>
       </c>
       <c r="F223" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(734,'Bühl');</v>
       </c>
       <c r="G223" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(734,'Bühl',20,0,20);</v>
       </c>
     </row>
@@ -12441,19 +12445,19 @@
         <v>20</v>
       </c>
       <c r="F224" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(735,'Epsach');</v>
       </c>
       <c r="G224" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(735,'Epsach',0,10,20);</v>
       </c>
       <c r="H224" t="s">
         <v>351</v>
       </c>
       <c r="I224" s="12" t="str">
-        <f t="shared" ref="I224" si="145">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A224,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(735, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A224,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(735, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -12473,19 +12477,19 @@
         <v>10</v>
       </c>
       <c r="F225" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(736,'Hagneck');</v>
       </c>
       <c r="G225" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(736,'Hagneck',10,0,10);</v>
       </c>
       <c r="H225" t="s">
         <v>352</v>
       </c>
       <c r="I225" s="12" t="str">
-        <f t="shared" ref="I225" si="146">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A225,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(736, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A225,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(736, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12505,20 +12509,20 @@
         <v>10</v>
       </c>
       <c r="F226" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(737,'Hermrigen');</v>
       </c>
       <c r="G226" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(737,'Hermrigen',20,10,10);</v>
       </c>
       <c r="H226" t="s">
         <v>353</v>
       </c>
       <c r="I226" s="12" t="str">
-        <f t="shared" ref="I226" si="147">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A226,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A226,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(737, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(737, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A226,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A226,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(737, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(737, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -12538,19 +12542,19 @@
         <v>0</v>
       </c>
       <c r="F227" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(738,'Jens');</v>
       </c>
       <c r="G227" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(738,'Jens',30,30,0);</v>
       </c>
       <c r="H227" t="s">
         <v>354</v>
       </c>
       <c r="I227" s="12" t="str">
-        <f t="shared" ref="I227" si="148">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A227,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(738, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A227,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(738, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -12570,19 +12574,19 @@
         <v>0</v>
       </c>
       <c r="F228" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(739,'Ipsach');</v>
       </c>
       <c r="G228" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(739,'Ipsach',0,10,0);</v>
       </c>
       <c r="H228" t="s">
         <v>355</v>
       </c>
       <c r="I228" s="12" t="str">
-        <f t="shared" ref="I228" si="149">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A228,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(739, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A228,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(739, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12602,20 +12606,20 @@
         <v>20</v>
       </c>
       <c r="F229" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(740,'Ligerz');</v>
       </c>
       <c r="G229" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(740,'Ligerz',20,10,20);</v>
       </c>
       <c r="H229" t="s">
         <v>356</v>
       </c>
       <c r="I229" s="12" t="str">
-        <f t="shared" ref="I229" si="150">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A229,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A229,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(740, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(740, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A229,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A229,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(740, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(740, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -12635,21 +12639,21 @@
         <v>0</v>
       </c>
       <c r="F230" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(741,'Merzligen');</v>
       </c>
       <c r="G230" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(741,'Merzligen',10,20,0);</v>
       </c>
       <c r="H230" t="s">
         <v>357</v>
       </c>
       <c r="I230" s="12" t="str">
-        <f t="shared" ref="I230" si="151">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A230,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A230,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A230,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(741, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(741, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(741, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A230,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A230,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A230,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(741, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(741, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(741, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -12669,25 +12673,25 @@
         <v>30</v>
       </c>
       <c r="F231" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(742,'Mörigen');</v>
       </c>
       <c r="G231" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(742,'Mörigen',20,0,30);</v>
       </c>
       <c r="H231" t="s">
         <v>358</v>
       </c>
       <c r="I231" s="12" t="str">
-        <f t="shared" ref="I231" si="152">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A231,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(742, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>743</v>
       </c>
@@ -12704,15 +12708,15 @@
         <v>30</v>
       </c>
       <c r="F232" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(743,'Nidau');</v>
       </c>
       <c r="G232" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(743,'Nidau',20,10,30);</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>744</v>
       </c>
@@ -12729,15 +12733,15 @@
         <v>0</v>
       </c>
       <c r="F233" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(744,'Orpund');</v>
       </c>
       <c r="G233" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(744,'Orpund',10,20,0);</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>745</v>
       </c>
@@ -12754,15 +12758,15 @@
         <v>0</v>
       </c>
       <c r="F234" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(745,'Port');</v>
       </c>
       <c r="G234" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(745,'Port',20,0,0);</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>746</v>
       </c>
@@ -12779,11 +12783,11 @@
         <v>20</v>
       </c>
       <c r="F235" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(746,'Safnern');</v>
       </c>
       <c r="G235" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(746,'Safnern',30,20,20);</v>
       </c>
     </row>
@@ -12804,19 +12808,19 @@
         <v>10</v>
       </c>
       <c r="F236" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(747,'Scheuren');</v>
       </c>
       <c r="G236" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(747,'Scheuren',10,10,10);</v>
       </c>
       <c r="H236" t="s">
         <v>351</v>
       </c>
       <c r="I236" s="12" t="str">
-        <f t="shared" ref="I236" si="153">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A236,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(747, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A236,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(747, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -12836,19 +12840,19 @@
         <v>10</v>
       </c>
       <c r="F237" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(748,'Schwadernau');</v>
       </c>
       <c r="G237" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(748,'Schwadernau',0,20,10);</v>
       </c>
       <c r="H237" t="s">
         <v>352</v>
       </c>
       <c r="I237" s="12" t="str">
-        <f t="shared" ref="I237" si="154">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A237,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(748, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A237,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(748, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12868,20 +12872,20 @@
         <v>10</v>
       </c>
       <c r="F238" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(749,'Studen (BE)');</v>
       </c>
       <c r="G238" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(749,'Studen (BE)',20,10,10);</v>
       </c>
       <c r="H238" t="s">
         <v>353</v>
       </c>
       <c r="I238" s="12" t="str">
-        <f t="shared" ref="I238" si="155">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A238,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A238,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(749, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(749, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A238,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A238,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(749, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(749, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -12901,19 +12905,19 @@
         <v>30</v>
       </c>
       <c r="F239" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(750,'Sutz-Lattrigen');</v>
       </c>
       <c r="G239" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(750,'Sutz-Lattrigen',30,10,30);</v>
       </c>
       <c r="H239" t="s">
         <v>354</v>
       </c>
       <c r="I239" s="12" t="str">
-        <f t="shared" ref="I239" si="156">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A239,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(750, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A239,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(750, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -12933,19 +12937,19 @@
         <v>10</v>
       </c>
       <c r="F240" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(751,'Täuffelen');</v>
       </c>
       <c r="G240" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(751,'Täuffelen',20,10,10);</v>
       </c>
       <c r="H240" t="s">
         <v>355</v>
       </c>
       <c r="I240" s="12" t="str">
-        <f t="shared" ref="I240" si="157">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A240,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(751, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A240,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(751, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -12965,20 +12969,20 @@
         <v>10</v>
       </c>
       <c r="F241" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(754,'Walperswil');</v>
       </c>
       <c r="G241" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(754,'Walperswil',20,20,10);</v>
       </c>
       <c r="H241" t="s">
         <v>356</v>
       </c>
       <c r="I241" s="12" t="str">
-        <f t="shared" ref="I241" si="158">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A241,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A241,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(754, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(754, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A241,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A241,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(754, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(754, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -12998,21 +13002,21 @@
         <v>30</v>
       </c>
       <c r="F242" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(755,'Worben');</v>
       </c>
       <c r="G242" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(755,'Worben',20,30,30);</v>
       </c>
       <c r="H242" t="s">
         <v>357</v>
       </c>
       <c r="I242" s="12" t="str">
-        <f t="shared" ref="I242" si="159">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A242,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A242,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A242,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(755, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(755, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(755, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A242,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A242,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A242,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(755, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(755, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(755, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -13032,25 +13036,25 @@
         <v>20</v>
       </c>
       <c r="F243" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(756,'Twann-Tüscherz');</v>
       </c>
       <c r="G243" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(756,'Twann-Tüscherz',30,30,20);</v>
       </c>
       <c r="H243" t="s">
         <v>358</v>
       </c>
       <c r="I243" s="12" t="str">
-        <f t="shared" ref="I243" si="160">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A243,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(756, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>761</v>
       </c>
@@ -13067,15 +13071,15 @@
         <v>0</v>
       </c>
       <c r="F244" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(761,'Därstetten');</v>
       </c>
       <c r="G244" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(761,'Därstetten',20,10,0);</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>762</v>
       </c>
@@ -13092,15 +13096,15 @@
         <v>10</v>
       </c>
       <c r="F245" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(762,'Diemtigen');</v>
       </c>
       <c r="G245" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(762,'Diemtigen',20,20,10);</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>763</v>
       </c>
@@ -13117,15 +13121,15 @@
         <v>10</v>
       </c>
       <c r="F246" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(763,'Erlenbach im Simmental');</v>
       </c>
       <c r="G246" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(763,'Erlenbach im Simmental',10,0,10);</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>766</v>
       </c>
@@ -13142,11 +13146,11 @@
         <v>20</v>
       </c>
       <c r="F247" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(766,'Oberwil im Simmental');</v>
       </c>
       <c r="G247" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(766,'Oberwil im Simmental',20,10,20);</v>
       </c>
     </row>
@@ -13167,19 +13171,19 @@
         <v>30</v>
       </c>
       <c r="F248" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(767,'Reutigen');</v>
       </c>
       <c r="G248" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(767,'Reutigen',20,10,30);</v>
       </c>
       <c r="H248" t="s">
         <v>351</v>
       </c>
       <c r="I248" s="12" t="str">
-        <f t="shared" ref="I248" si="161">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A248,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(767, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A248,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(767, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -13199,19 +13203,19 @@
         <v>30</v>
       </c>
       <c r="F249" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(768,'Spiez');</v>
       </c>
       <c r="G249" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(768,'Spiez',10,20,30);</v>
       </c>
       <c r="H249" t="s">
         <v>352</v>
       </c>
       <c r="I249" s="12" t="str">
-        <f t="shared" ref="I249" si="162">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A249,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(768, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A249,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(768, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13231,20 +13235,20 @@
         <v>10</v>
       </c>
       <c r="F250" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(769,'Wimmis');</v>
       </c>
       <c r="G250" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(769,'Wimmis',10,10,10);</v>
       </c>
       <c r="H250" t="s">
         <v>353</v>
       </c>
       <c r="I250" s="12" t="str">
-        <f t="shared" ref="I250" si="163">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A250,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A250,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(769, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(769, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A250,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A250,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(769, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(769, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -13264,19 +13268,19 @@
         <v>0</v>
       </c>
       <c r="F251" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(770,'Stocken-Höfen');</v>
       </c>
       <c r="G251" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(770,'Stocken-Höfen',10,20,0);</v>
       </c>
       <c r="H251" t="s">
         <v>354</v>
       </c>
       <c r="I251" s="12" t="str">
-        <f t="shared" ref="I251" si="164">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A251,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(770, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A251,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(770, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -13296,19 +13300,19 @@
         <v>10</v>
       </c>
       <c r="F252" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(782,'Guttannen');</v>
       </c>
       <c r="G252" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(782,'Guttannen',30,0,10);</v>
       </c>
       <c r="H252" t="s">
         <v>355</v>
       </c>
       <c r="I252" s="12" t="str">
-        <f t="shared" ref="I252" si="165">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A252,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(782, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A252,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(782, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13328,20 +13332,20 @@
         <v>0</v>
       </c>
       <c r="F253" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(783,'Hasliberg');</v>
       </c>
       <c r="G253" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(783,'Hasliberg',20,30,0);</v>
       </c>
       <c r="H253" t="s">
         <v>356</v>
       </c>
       <c r="I253" s="12" t="str">
-        <f t="shared" ref="I253" si="166">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A253,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A253,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(783, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(783, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A253,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A253,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(783, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(783, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -13361,21 +13365,21 @@
         <v>10</v>
       </c>
       <c r="F254" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(784,'Innertkirchen');</v>
       </c>
       <c r="G254" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(784,'Innertkirchen',30,30,10);</v>
       </c>
       <c r="H254" t="s">
         <v>357</v>
       </c>
       <c r="I254" s="12" t="str">
-        <f t="shared" ref="I254" si="167">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A254,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A254,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A254,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(784, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(784, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(784, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A254,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A254,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A254,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(784, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(784, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(784, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -13395,25 +13399,25 @@
         <v>10</v>
       </c>
       <c r="F255" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(785,'Meiringen');</v>
       </c>
       <c r="G255" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(785,'Meiringen',20,30,10);</v>
       </c>
       <c r="H255" t="s">
         <v>358</v>
       </c>
       <c r="I255" s="12" t="str">
-        <f t="shared" ref="I255" si="168">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A255,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(785, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>786</v>
       </c>
@@ -13430,15 +13434,15 @@
         <v>20</v>
       </c>
       <c r="F256" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(786,'Schattenhalb');</v>
       </c>
       <c r="G256" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(786,'Schattenhalb',0,30,20);</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>791</v>
       </c>
@@ -13455,15 +13459,15 @@
         <v>0</v>
       </c>
       <c r="F257" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(791,'Boltigen');</v>
       </c>
       <c r="G257" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(791,'Boltigen',30,10,0);</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>792</v>
       </c>
@@ -13480,15 +13484,15 @@
         <v>0</v>
       </c>
       <c r="F258" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(792,'Lenk');</v>
       </c>
       <c r="G258" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(792,'Lenk',10,0,0);</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>793</v>
       </c>
@@ -13505,11 +13509,11 @@
         <v>20</v>
       </c>
       <c r="F259" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(793,'St. Stephan');</v>
       </c>
       <c r="G259" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(793,'St. Stephan',30,30,20);</v>
       </c>
     </row>
@@ -13530,19 +13534,19 @@
         <v>30</v>
       </c>
       <c r="F260" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(794,'Zweisimmen');</v>
       </c>
       <c r="G260" s="11" t="str">
-        <f t="shared" ref="G260:G323" si="169">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A260,",'",B260,"',",C260,",",D260,",",E260,");")</f>
+        <f t="shared" ref="G260:G323" si="9">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A260,",'",B260,"',",C260,",",D260,",",E260,");")</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(794,'Zweisimmen',30,30,30);</v>
       </c>
       <c r="H260" t="s">
         <v>351</v>
       </c>
       <c r="I260" s="12" t="str">
-        <f t="shared" ref="I260" si="170">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A260,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(794, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A260,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(794, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -13562,19 +13566,19 @@
         <v>10</v>
       </c>
       <c r="F261" s="11" t="str">
-        <f t="shared" ref="F261:F324" si="171">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A261&amp;",'"&amp;B261&amp;"');"</f>
+        <f t="shared" ref="F261:F324" si="10">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A261&amp;",'"&amp;B261&amp;"');"</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(841,'Gsteig');</v>
       </c>
       <c r="G261" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(841,'Gsteig',20,10,10);</v>
       </c>
       <c r="H261" t="s">
         <v>352</v>
       </c>
       <c r="I261" s="12" t="str">
-        <f t="shared" ref="I261" si="172">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A261,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(841, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A261,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(841, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13594,20 +13598,20 @@
         <v>10</v>
       </c>
       <c r="F262" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(842,'Lauenen');</v>
       </c>
       <c r="G262" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(842,'Lauenen',10,0,10);</v>
       </c>
       <c r="H262" t="s">
         <v>353</v>
       </c>
       <c r="I262" s="12" t="str">
-        <f t="shared" ref="I262" si="173">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A262,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A262,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(842, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(842, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A262,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A262,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(842, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(842, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -13627,19 +13631,19 @@
         <v>20</v>
       </c>
       <c r="F263" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(843,'Saanen');</v>
       </c>
       <c r="G263" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(843,'Saanen',20,20,20);</v>
       </c>
       <c r="H263" t="s">
         <v>354</v>
       </c>
       <c r="I263" s="12" t="str">
-        <f t="shared" ref="I263" si="174">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A263,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(843, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A263,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(843, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -13659,19 +13663,19 @@
         <v>10</v>
       </c>
       <c r="F264" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(852,'Guggisberg');</v>
       </c>
       <c r="G264" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(852,'Guggisberg',10,20,10);</v>
       </c>
       <c r="H264" t="s">
         <v>355</v>
       </c>
       <c r="I264" s="12" t="str">
-        <f t="shared" ref="I264" si="175">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A264,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(852, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A264,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(852, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13691,20 +13695,20 @@
         <v>10</v>
       </c>
       <c r="F265" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(853,'Rüschegg');</v>
       </c>
       <c r="G265" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(853,'Rüschegg',30,0,10);</v>
       </c>
       <c r="H265" t="s">
         <v>356</v>
       </c>
       <c r="I265" s="12" t="str">
-        <f t="shared" ref="I265" si="176">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A265,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A265,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(853, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(853, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A265,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A265,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(853, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(853, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -13724,21 +13728,21 @@
         <v>30</v>
       </c>
       <c r="F266" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(855,'Schwarzenburg');</v>
       </c>
       <c r="G266" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(855,'Schwarzenburg',0,30,30);</v>
       </c>
       <c r="H266" t="s">
         <v>357</v>
       </c>
       <c r="I266" s="12" t="str">
-        <f t="shared" ref="I266" si="177">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A266,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A266,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A266,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(855, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(855, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(855, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A266,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A266,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A266,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(855, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(855, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(855, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -13758,25 +13762,25 @@
         <v>10</v>
       </c>
       <c r="F267" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(861,'Belp');</v>
       </c>
       <c r="G267" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(861,'Belp',10,10,10);</v>
       </c>
       <c r="H267" t="s">
         <v>358</v>
       </c>
       <c r="I267" s="12" t="str">
-        <f t="shared" ref="I267" si="178">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A267,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(861, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>863</v>
       </c>
@@ -13793,15 +13797,15 @@
         <v>20</v>
       </c>
       <c r="F268" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(863,'Burgistein');</v>
       </c>
       <c r="G268" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(863,'Burgistein',10,10,20);</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>865</v>
       </c>
@@ -13818,15 +13822,15 @@
         <v>0</v>
       </c>
       <c r="F269" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(865,'Gelterfingen');</v>
       </c>
       <c r="G269" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(865,'Gelterfingen',0,30,0);</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>866</v>
       </c>
@@ -13843,15 +13847,15 @@
         <v>10</v>
       </c>
       <c r="F270" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(866,'Gerzensee');</v>
       </c>
       <c r="G270" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(866,'Gerzensee',0,0,10);</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>867</v>
       </c>
@@ -13868,11 +13872,11 @@
         <v>30</v>
       </c>
       <c r="F271" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(867,'Gurzelen');</v>
       </c>
       <c r="G271" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(867,'Gurzelen',10,0,30);</v>
       </c>
     </row>
@@ -13893,19 +13897,19 @@
         <v>0</v>
       </c>
       <c r="F272" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(868,'Jaberg');</v>
       </c>
       <c r="G272" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(868,'Jaberg',10,10,0);</v>
       </c>
       <c r="H272" t="s">
         <v>351</v>
       </c>
       <c r="I272" s="12" t="str">
-        <f t="shared" ref="I272" si="179">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A272,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(868, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A272,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(868, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -13925,19 +13929,19 @@
         <v>30</v>
       </c>
       <c r="F273" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(869,'Kaufdorf');</v>
       </c>
       <c r="G273" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(869,'Kaufdorf',20,20,30);</v>
       </c>
       <c r="H273" t="s">
         <v>352</v>
       </c>
       <c r="I273" s="12" t="str">
-        <f t="shared" ref="I273" si="180">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A273,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(869, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A273,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(869, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13957,20 +13961,20 @@
         <v>10</v>
       </c>
       <c r="F274" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(870,'Kehrsatz');</v>
       </c>
       <c r="G274" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(870,'Kehrsatz',20,20,10);</v>
       </c>
       <c r="H274" t="s">
         <v>353</v>
       </c>
       <c r="I274" s="12" t="str">
-        <f t="shared" ref="I274" si="181">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A274,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A274,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(870, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(870, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A274,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A274,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(870, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(870, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -13990,19 +13994,19 @@
         <v>30</v>
       </c>
       <c r="F275" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(872,'Kirchdorf (BE)');</v>
       </c>
       <c r="G275" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(872,'Kirchdorf (BE)',20,20,30);</v>
       </c>
       <c r="H275" t="s">
         <v>354</v>
       </c>
       <c r="I275" s="12" t="str">
-        <f t="shared" ref="I275" si="182">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A275,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(872, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A275,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(872, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -14022,19 +14026,19 @@
         <v>30</v>
       </c>
       <c r="F276" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(873,'Kirchenthurnen');</v>
       </c>
       <c r="G276" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(873,'Kirchenthurnen',30,10,30);</v>
       </c>
       <c r="H276" t="s">
         <v>355</v>
       </c>
       <c r="I276" s="12" t="str">
-        <f t="shared" ref="I276" si="183">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A276,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(873, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A276,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(873, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -14054,20 +14058,20 @@
         <v>0</v>
       </c>
       <c r="F277" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(874,'Lohnstorf');</v>
       </c>
       <c r="G277" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(874,'Lohnstorf',0,10,0);</v>
       </c>
       <c r="H277" t="s">
         <v>356</v>
       </c>
       <c r="I277" s="12" t="str">
-        <f t="shared" ref="I277" si="184">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A277,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A277,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(874, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(874, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A277,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A277,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(874, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(874, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -14087,21 +14091,21 @@
         <v>10</v>
       </c>
       <c r="F278" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(875,'Mühledorf (BE)');</v>
       </c>
       <c r="G278" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(875,'Mühledorf (BE)',0,10,10);</v>
       </c>
       <c r="H278" t="s">
         <v>357</v>
       </c>
       <c r="I278" s="12" t="str">
-        <f t="shared" ref="I278" si="185">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A278,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A278,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A278,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(875, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(875, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(875, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A278,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A278,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A278,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(875, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(875, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(875, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -14121,25 +14125,25 @@
         <v>0</v>
       </c>
       <c r="F279" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(876,'Mühlethurnen');</v>
       </c>
       <c r="G279" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(876,'Mühlethurnen',20,20,0);</v>
       </c>
       <c r="H279" t="s">
         <v>358</v>
       </c>
       <c r="I279" s="12" t="str">
-        <f t="shared" ref="I279" si="186">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A279,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(876, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>877</v>
       </c>
@@ -14156,15 +14160,15 @@
         <v>10</v>
       </c>
       <c r="F280" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(877,'Niedermuhlern');</v>
       </c>
       <c r="G280" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(877,'Niedermuhlern',10,20,10);</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>878</v>
       </c>
@@ -14181,15 +14185,15 @@
         <v>10</v>
       </c>
       <c r="F281" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(878,'Noflen');</v>
       </c>
       <c r="G281" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(878,'Noflen',20,20,10);</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>879</v>
       </c>
@@ -14206,15 +14210,15 @@
         <v>10</v>
       </c>
       <c r="F282" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(879,'Riggisberg');</v>
       </c>
       <c r="G282" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(879,'Riggisberg',30,10,10);</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>880</v>
       </c>
@@ -14231,11 +14235,11 @@
         <v>20</v>
       </c>
       <c r="F283" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(880,'Rüeggisberg');</v>
       </c>
       <c r="G283" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(880,'Rüeggisberg',0,10,20);</v>
       </c>
     </row>
@@ -14256,19 +14260,19 @@
         <v>10</v>
       </c>
       <c r="F284" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(881,'Rümligen');</v>
       </c>
       <c r="G284" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(881,'Rümligen',10,0,10);</v>
       </c>
       <c r="H284" t="s">
         <v>351</v>
       </c>
       <c r="I284" s="12" t="str">
-        <f t="shared" ref="I284" si="187">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A284,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(881, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A284,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(881, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -14288,19 +14292,19 @@
         <v>10</v>
       </c>
       <c r="F285" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(883,'Seftigen');</v>
       </c>
       <c r="G285" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(883,'Seftigen',20,30,10);</v>
       </c>
       <c r="H285" t="s">
         <v>352</v>
       </c>
       <c r="I285" s="12" t="str">
-        <f t="shared" ref="I285" si="188">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A285,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(883, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A285,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(883, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -14320,20 +14324,20 @@
         <v>30</v>
       </c>
       <c r="F286" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(884,'Toffen');</v>
       </c>
       <c r="G286" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(884,'Toffen',30,30,30);</v>
       </c>
       <c r="H286" t="s">
         <v>353</v>
       </c>
       <c r="I286" s="12" t="str">
-        <f t="shared" ref="I286" si="189">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A286,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A286,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(884, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(884, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A286,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A286,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(884, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(884, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -14353,19 +14357,19 @@
         <v>10</v>
       </c>
       <c r="F287" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(885,'Uttigen');</v>
       </c>
       <c r="G287" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(885,'Uttigen',30,10,10);</v>
       </c>
       <c r="H287" t="s">
         <v>354</v>
       </c>
       <c r="I287" s="12" t="str">
-        <f t="shared" ref="I287" si="190">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A287,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(885, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A287,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(885, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -14385,19 +14389,19 @@
         <v>10</v>
       </c>
       <c r="F288" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(886,'Wattenwil');</v>
       </c>
       <c r="G288" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(886,'Wattenwil',30,10,10);</v>
       </c>
       <c r="H288" t="s">
         <v>355</v>
       </c>
       <c r="I288" s="12" t="str">
-        <f t="shared" ref="I288" si="191">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A288,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(886, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A288,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(886, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -14417,20 +14421,20 @@
         <v>0</v>
       </c>
       <c r="F289" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(888,'Wald (BE)');</v>
       </c>
       <c r="G289" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(888,'Wald (BE)',10,30,0);</v>
       </c>
       <c r="H289" t="s">
         <v>356</v>
       </c>
       <c r="I289" s="12" t="str">
-        <f t="shared" ref="I289" si="192">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A289,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A289,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(888, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(888, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A289,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A289,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(888, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(888, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -14450,21 +14454,21 @@
         <v>20</v>
       </c>
       <c r="F290" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(901,'Eggiwil');</v>
       </c>
       <c r="G290" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(901,'Eggiwil',10,10,20);</v>
       </c>
       <c r="H290" t="s">
         <v>357</v>
       </c>
       <c r="I290" s="12" t="str">
-        <f t="shared" ref="I290" si="193">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A290,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A290,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A290,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(901, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(901, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(901, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A290,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A290,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A290,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(901, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(901, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(901, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -14484,25 +14488,25 @@
         <v>10</v>
       </c>
       <c r="F291" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(902,'Langnau im Emmental');</v>
       </c>
       <c r="G291" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(902,'Langnau im Emmental',10,30,10);</v>
       </c>
       <c r="H291" t="s">
         <v>358</v>
       </c>
       <c r="I291" s="12" t="str">
-        <f t="shared" ref="I291" si="194">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A291,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(902, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>903</v>
       </c>
@@ -14519,15 +14523,15 @@
         <v>20</v>
       </c>
       <c r="F292" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(903,'Lauperswil');</v>
       </c>
       <c r="G292" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(903,'Lauperswil',30,20,20);</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>904</v>
       </c>
@@ -14544,15 +14548,15 @@
         <v>0</v>
       </c>
       <c r="F293" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(904,'Röthenbach im Emmental');</v>
       </c>
       <c r="G293" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(904,'Röthenbach im Emmental',10,0,0);</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>905</v>
       </c>
@@ -14569,15 +14573,15 @@
         <v>10</v>
       </c>
       <c r="F294" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(905,'Rüderswil');</v>
       </c>
       <c r="G294" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(905,'Rüderswil',30,0,10);</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>906</v>
       </c>
@@ -14594,11 +14598,11 @@
         <v>30</v>
       </c>
       <c r="F295" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(906,'Schangnau');</v>
       </c>
       <c r="G295" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(906,'Schangnau',30,30,30);</v>
       </c>
     </row>
@@ -14619,19 +14623,19 @@
         <v>10</v>
       </c>
       <c r="F296" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(907,'Signau');</v>
       </c>
       <c r="G296" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(907,'Signau',10,10,10);</v>
       </c>
       <c r="H296" t="s">
         <v>351</v>
       </c>
       <c r="I296" s="12" t="str">
-        <f t="shared" ref="I296" si="195">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A296,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(907, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A296,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(907, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -14651,19 +14655,19 @@
         <v>0</v>
       </c>
       <c r="F297" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(908,'Trub');</v>
       </c>
       <c r="G297" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(908,'Trub',20,20,0);</v>
       </c>
       <c r="H297" t="s">
         <v>352</v>
       </c>
       <c r="I297" s="12" t="str">
-        <f t="shared" ref="I297" si="196">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A297,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(908, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A297,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(908, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -14683,20 +14687,20 @@
         <v>30</v>
       </c>
       <c r="F298" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(909,'Trubschachen');</v>
       </c>
       <c r="G298" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(909,'Trubschachen',0,30,30);</v>
       </c>
       <c r="H298" t="s">
         <v>353</v>
       </c>
       <c r="I298" s="12" t="str">
-        <f t="shared" ref="I298" si="197">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A298,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A298,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(909, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(909, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A298,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A298,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(909, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(909, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -14716,19 +14720,19 @@
         <v>0</v>
       </c>
       <c r="F299" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(921,'Amsoldingen');</v>
       </c>
       <c r="G299" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(921,'Amsoldingen',30,10,0);</v>
       </c>
       <c r="H299" t="s">
         <v>354</v>
       </c>
       <c r="I299" s="12" t="str">
-        <f t="shared" ref="I299" si="198">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A299,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(921, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A299,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(921, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -14748,19 +14752,19 @@
         <v>20</v>
       </c>
       <c r="F300" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(922,'Blumenstein');</v>
       </c>
       <c r="G300" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(922,'Blumenstein',20,10,20);</v>
       </c>
       <c r="H300" t="s">
         <v>355</v>
       </c>
       <c r="I300" s="12" t="str">
-        <f t="shared" ref="I300" si="199">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A300,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(922, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A300,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(922, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -14780,20 +14784,20 @@
         <v>10</v>
       </c>
       <c r="F301" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(923,'Buchholterberg');</v>
       </c>
       <c r="G301" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(923,'Buchholterberg',20,20,10);</v>
       </c>
       <c r="H301" t="s">
         <v>356</v>
       </c>
       <c r="I301" s="12" t="str">
-        <f t="shared" ref="I301" si="200">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A301,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A301,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(923, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(923, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A301,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A301,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(923, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(923, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -14813,21 +14817,21 @@
         <v>30</v>
       </c>
       <c r="F302" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(924,'Eriz');</v>
       </c>
       <c r="G302" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(924,'Eriz',30,10,30);</v>
       </c>
       <c r="H302" t="s">
         <v>357</v>
       </c>
       <c r="I302" s="12" t="str">
-        <f t="shared" ref="I302" si="201">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A302,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A302,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A302,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(924, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(924, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(924, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A302,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A302,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A302,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(924, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(924, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(924, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -14847,25 +14851,25 @@
         <v>30</v>
       </c>
       <c r="F303" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(925,'Fahrni');</v>
       </c>
       <c r="G303" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(925,'Fahrni',20,20,30);</v>
       </c>
       <c r="H303" t="s">
         <v>358</v>
       </c>
       <c r="I303" s="12" t="str">
-        <f t="shared" ref="I303" si="202">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A303,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(925, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>927</v>
       </c>
@@ -14882,15 +14886,15 @@
         <v>10</v>
       </c>
       <c r="F304" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(927,'Heiligenschwendi');</v>
       </c>
       <c r="G304" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(927,'Heiligenschwendi',10,10,10);</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>928</v>
       </c>
@@ -14907,15 +14911,15 @@
         <v>20</v>
       </c>
       <c r="F305" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(928,'Heimberg');</v>
       </c>
       <c r="G305" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(928,'Heimberg',20,0,20);</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>929</v>
       </c>
@@ -14932,15 +14936,15 @@
         <v>10</v>
       </c>
       <c r="F306" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(929,'Hilterfingen');</v>
       </c>
       <c r="G306" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(929,'Hilterfingen',10,20,10);</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>931</v>
       </c>
@@ -14957,11 +14961,11 @@
         <v>20</v>
       </c>
       <c r="F307" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(931,'Homberg');</v>
       </c>
       <c r="G307" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(931,'Homberg',20,30,20);</v>
       </c>
     </row>
@@ -14982,19 +14986,19 @@
         <v>30</v>
       </c>
       <c r="F308" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(932,'Horrenbach-Buchen');</v>
       </c>
       <c r="G308" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(932,'Horrenbach-Buchen',0,20,30);</v>
       </c>
       <c r="H308" t="s">
         <v>351</v>
       </c>
       <c r="I308" s="12" t="str">
-        <f t="shared" ref="I308" si="203">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A308,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(932, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A308,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(932, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -15014,19 +15018,19 @@
         <v>20</v>
       </c>
       <c r="F309" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(934,'Oberhofen am Thunersee');</v>
       </c>
       <c r="G309" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(934,'Oberhofen am Thunersee',20,20,20);</v>
       </c>
       <c r="H309" t="s">
         <v>352</v>
       </c>
       <c r="I309" s="12" t="str">
-        <f t="shared" ref="I309" si="204">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A309,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(934, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A309,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(934, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15046,20 +15050,20 @@
         <v>30</v>
       </c>
       <c r="F310" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(935,'Oberlangenegg');</v>
       </c>
       <c r="G310" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(935,'Oberlangenegg',10,10,30);</v>
       </c>
       <c r="H310" t="s">
         <v>353</v>
       </c>
       <c r="I310" s="12" t="str">
-        <f t="shared" ref="I310" si="205">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A310,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A310,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(935, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(935, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A310,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A310,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(935, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(935, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -15079,19 +15083,19 @@
         <v>20</v>
       </c>
       <c r="F311" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(936,'Pohlern');</v>
       </c>
       <c r="G311" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(936,'Pohlern',10,10,20);</v>
       </c>
       <c r="H311" t="s">
         <v>354</v>
       </c>
       <c r="I311" s="12" t="str">
-        <f t="shared" ref="I311" si="206">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A311,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(936, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A311,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(936, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -15111,19 +15115,19 @@
         <v>30</v>
       </c>
       <c r="F312" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(937,'Schwendibach');</v>
       </c>
       <c r="G312" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(937,'Schwendibach',10,20,30);</v>
       </c>
       <c r="H312" t="s">
         <v>355</v>
       </c>
       <c r="I312" s="12" t="str">
-        <f t="shared" ref="I312" si="207">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A312,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(937, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A312,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(937, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15143,20 +15147,20 @@
         <v>10</v>
       </c>
       <c r="F313" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(938,'Sigriswil');</v>
       </c>
       <c r="G313" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(938,'Sigriswil',30,30,10);</v>
       </c>
       <c r="H313" t="s">
         <v>356</v>
       </c>
       <c r="I313" s="12" t="str">
-        <f t="shared" ref="I313" si="208">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A313,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A313,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(938, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(938, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A313,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A313,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(938, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(938, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -15176,21 +15180,21 @@
         <v>30</v>
       </c>
       <c r="F314" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(939,'Steffisburg');</v>
       </c>
       <c r="G314" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(939,'Steffisburg',10,10,30);</v>
       </c>
       <c r="H314" t="s">
         <v>357</v>
       </c>
       <c r="I314" s="12" t="str">
-        <f t="shared" ref="I314" si="209">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A314,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A314,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A314,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(939, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(939, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(939, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A314,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A314,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A314,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(939, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(939, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(939, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -15210,25 +15214,25 @@
         <v>30</v>
       </c>
       <c r="F315" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(940,'Teuffenthal (BE)');</v>
       </c>
       <c r="G315" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(940,'Teuffenthal (BE)',10,0,30);</v>
       </c>
       <c r="H315" t="s">
         <v>358</v>
       </c>
       <c r="I315" s="12" t="str">
-        <f t="shared" ref="I315" si="210">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A315,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(940, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>941</v>
       </c>
@@ -15245,15 +15249,15 @@
         <v>20</v>
       </c>
       <c r="F316" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(941,'Thierachern');</v>
       </c>
       <c r="G316" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(941,'Thierachern',0,10,20);</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>942</v>
       </c>
@@ -15270,15 +15274,15 @@
         <v>10</v>
       </c>
       <c r="F317" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(942,'Thun');</v>
       </c>
       <c r="G317" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(942,'Thun',0,10,10);</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>943</v>
       </c>
@@ -15295,15 +15299,15 @@
         <v>10</v>
       </c>
       <c r="F318" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(943,'Uebeschi');</v>
       </c>
       <c r="G318" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(943,'Uebeschi',20,10,10);</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>944</v>
       </c>
@@ -15320,11 +15324,11 @@
         <v>10</v>
       </c>
       <c r="F319" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(944,'Uetendorf');</v>
       </c>
       <c r="G319" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(944,'Uetendorf',30,10,10);</v>
       </c>
     </row>
@@ -15345,19 +15349,19 @@
         <v>30</v>
       </c>
       <c r="F320" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(945,'Unterlangenegg');</v>
       </c>
       <c r="G320" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(945,'Unterlangenegg',20,30,30);</v>
       </c>
       <c r="H320" t="s">
         <v>351</v>
       </c>
       <c r="I320" s="12" t="str">
-        <f t="shared" ref="I320" si="211">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A320,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(945, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A320,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(945, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -15377,19 +15381,19 @@
         <v>20</v>
       </c>
       <c r="F321" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(946,'Wachseldorn');</v>
       </c>
       <c r="G321" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(946,'Wachseldorn',10,10,20);</v>
       </c>
       <c r="H321" t="s">
         <v>352</v>
       </c>
       <c r="I321" s="12" t="str">
-        <f t="shared" ref="I321" si="212">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A321,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(946, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A321,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(946, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15409,20 +15413,20 @@
         <v>30</v>
       </c>
       <c r="F322" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(947,'Zwieselberg');</v>
       </c>
       <c r="G322" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(947,'Zwieselberg',30,20,30);</v>
       </c>
       <c r="H322" t="s">
         <v>353</v>
       </c>
       <c r="I322" s="12" t="str">
-        <f t="shared" ref="I322" si="213">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A322,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A322,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(947, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(947, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A322,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A322,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(947, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(947, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -15442,19 +15446,19 @@
         <v>30</v>
       </c>
       <c r="F323" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(948,'Forst-Längenbühl');</v>
       </c>
       <c r="G323" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(948,'Forst-Längenbühl',10,20,30);</v>
       </c>
       <c r="H323" t="s">
         <v>354</v>
       </c>
       <c r="I323" s="12" t="str">
-        <f t="shared" ref="I323" si="214">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A323,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(948, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A323,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(948, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -15474,19 +15478,19 @@
         <v>20</v>
       </c>
       <c r="F324" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(951,'Affoltern im Emmental');</v>
       </c>
       <c r="G324" s="11" t="str">
-        <f t="shared" ref="G324:G353" si="215">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A324,",'",B324,"',",C324,",",D324,",",E324,");")</f>
+        <f t="shared" ref="G324:G353" si="11">CONCATENATE("INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(",A324,",'",B324,"',",C324,",",D324,",",E324,");")</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(951,'Affoltern im Emmental',30,0,20);</v>
       </c>
       <c r="H324" t="s">
         <v>355</v>
       </c>
       <c r="I324" s="12" t="str">
-        <f t="shared" ref="I324" si="216">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A324,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(951, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A324,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(951, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15506,20 +15510,20 @@
         <v>0</v>
       </c>
       <c r="F325" s="11" t="str">
-        <f t="shared" ref="F325:F354" si="217">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A325&amp;",'"&amp;B325&amp;"');"</f>
+        <f t="shared" ref="F325:F354" si="12">"INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES("&amp;A325&amp;",'"&amp;B325&amp;"');"</f>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(952,'Dürrenroth');</v>
       </c>
       <c r="G325" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(952,'Dürrenroth',0,30,0);</v>
       </c>
       <c r="H325" t="s">
         <v>356</v>
       </c>
       <c r="I325" s="12" t="str">
-        <f t="shared" ref="I325" si="218">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A325,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A325,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(952, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(952, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A325,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A325,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(952, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(952, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -15539,21 +15543,21 @@
         <v>20</v>
       </c>
       <c r="F326" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(953,'Eriswil');</v>
       </c>
       <c r="G326" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(953,'Eriswil',30,20,20);</v>
       </c>
       <c r="H326" t="s">
         <v>357</v>
       </c>
       <c r="I326" s="12" t="str">
-        <f t="shared" ref="I326" si="219">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A326,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A326,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A326,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(953, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(953, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(953, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A326,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A326,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A326,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(953, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(953, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(953, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -15573,25 +15577,25 @@
         <v>30</v>
       </c>
       <c r="F327" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(954,'Huttwil');</v>
       </c>
       <c r="G327" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(954,'Huttwil',30,10,30);</v>
       </c>
       <c r="H327" t="s">
         <v>358</v>
       </c>
       <c r="I327" s="12" t="str">
-        <f t="shared" ref="I327" si="220">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A327,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(954, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>955</v>
       </c>
@@ -15608,15 +15612,15 @@
         <v>20</v>
       </c>
       <c r="F328" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(955,'Lützelflüh');</v>
       </c>
       <c r="G328" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(955,'Lützelflüh',30,20,20);</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>956</v>
       </c>
@@ -15633,15 +15637,15 @@
         <v>20</v>
       </c>
       <c r="F329" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(956,'Rüegsau');</v>
       </c>
       <c r="G329" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(956,'Rüegsau',10,10,20);</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>957</v>
       </c>
@@ -15658,15 +15662,15 @@
         <v>30</v>
       </c>
       <c r="F330" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(957,'Sumiswald');</v>
       </c>
       <c r="G330" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(957,'Sumiswald',20,10,30);</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>958</v>
       </c>
@@ -15683,11 +15687,11 @@
         <v>0</v>
       </c>
       <c r="F331" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(958,'Trachselwald');</v>
       </c>
       <c r="G331" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(958,'Trachselwald',20,0,0);</v>
       </c>
     </row>
@@ -15708,19 +15712,19 @@
         <v>30</v>
       </c>
       <c r="F332" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(959,'Walterswil (BE)');</v>
       </c>
       <c r="G332" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(959,'Walterswil (BE)',10,30,30);</v>
       </c>
       <c r="H332" t="s">
         <v>351</v>
       </c>
       <c r="I332" s="12" t="str">
-        <f t="shared" ref="I332" si="221">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A332,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(959, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A332,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(959, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -15740,19 +15744,19 @@
         <v>30</v>
       </c>
       <c r="F333" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(960,'Wyssachen');</v>
       </c>
       <c r="G333" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(960,'Wyssachen',20,20,30);</v>
       </c>
       <c r="H333" t="s">
         <v>352</v>
       </c>
       <c r="I333" s="12" t="str">
-        <f t="shared" ref="I333" si="222">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A333,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(960, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A333,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(960, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15772,20 +15776,20 @@
         <v>30</v>
       </c>
       <c r="F334" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(971,'Attiswil');</v>
       </c>
       <c r="G334" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(971,'Attiswil',10,30,30);</v>
       </c>
       <c r="H334" t="s">
         <v>353</v>
       </c>
       <c r="I334" s="12" t="str">
-        <f t="shared" ref="I334" si="223">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A334,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A334,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(971, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(971, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A334,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A334,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(971, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(971, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -15805,19 +15809,19 @@
         <v>20</v>
       </c>
       <c r="F335" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(972,'Berken');</v>
       </c>
       <c r="G335" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(972,'Berken',30,10,20);</v>
       </c>
       <c r="H335" t="s">
         <v>354</v>
       </c>
       <c r="I335" s="12" t="str">
-        <f t="shared" ref="I335" si="224">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A335,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(972, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A335,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(972, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -15837,19 +15841,19 @@
         <v>30</v>
       </c>
       <c r="F336" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(973,'Bettenhausen');</v>
       </c>
       <c r="G336" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(973,'Bettenhausen',0,20,30);</v>
       </c>
       <c r="H336" t="s">
         <v>355</v>
       </c>
       <c r="I336" s="12" t="str">
-        <f t="shared" ref="I336" si="225">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A336,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(973, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A336,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(973, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -15869,20 +15873,20 @@
         <v>20</v>
       </c>
       <c r="F337" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(975,'Farnern');</v>
       </c>
       <c r="G337" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(975,'Farnern',20,20,20);</v>
       </c>
       <c r="H337" t="s">
         <v>356</v>
       </c>
       <c r="I337" s="12" t="str">
-        <f t="shared" ref="I337" si="226">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A337,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A337,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(975, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(975, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A337,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A337,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(975, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(975, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -15902,21 +15906,21 @@
         <v>10</v>
       </c>
       <c r="F338" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(976,'Graben');</v>
       </c>
       <c r="G338" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(976,'Graben',10,10,10);</v>
       </c>
       <c r="H338" t="s">
         <v>357</v>
       </c>
       <c r="I338" s="12" t="str">
-        <f t="shared" ref="I338" si="227">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A338,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A338,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A338,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(976, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(976, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(976, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A338,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A338,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A338,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(976, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(976, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(976, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -15936,25 +15940,25 @@
         <v>10</v>
       </c>
       <c r="F339" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(977,'Heimenhausen');</v>
       </c>
       <c r="G339" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(977,'Heimenhausen',30,30,10);</v>
       </c>
       <c r="H339" t="s">
         <v>358</v>
       </c>
       <c r="I339" s="12" t="str">
-        <f t="shared" ref="I339" si="228">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A339,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(977, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>979</v>
       </c>
@@ -15971,15 +15975,15 @@
         <v>10</v>
       </c>
       <c r="F340" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(979,'Herzogenbuchsee');</v>
       </c>
       <c r="G340" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(979,'Herzogenbuchsee',0,10,10);</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>980</v>
       </c>
@@ -15996,15 +16000,15 @@
         <v>30</v>
       </c>
       <c r="F341" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(980,'Inkwil');</v>
       </c>
       <c r="G341" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(980,'Inkwil',10,0,30);</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>981</v>
       </c>
@@ -16021,15 +16025,15 @@
         <v>10</v>
       </c>
       <c r="F342" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(981,'Niederbipp');</v>
       </c>
       <c r="G342" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(981,'Niederbipp',10,10,10);</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>982</v>
       </c>
@@ -16046,11 +16050,11 @@
         <v>10</v>
       </c>
       <c r="F343" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(982,'Niederönz');</v>
       </c>
       <c r="G343" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(982,'Niederönz',10,30,10);</v>
       </c>
     </row>
@@ -16071,19 +16075,19 @@
         <v>0</v>
       </c>
       <c r="F344" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(983,'Oberbipp');</v>
       </c>
       <c r="G344" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(983,'Oberbipp',20,10,0);</v>
       </c>
       <c r="H344" t="s">
         <v>351</v>
       </c>
       <c r="I344" s="12" t="str">
-        <f t="shared" ref="I344" si="229">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A344,", 1, 'Y', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(983, 1, 'Y', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A344,", 1, 'Y', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(983, 1, 'Y', 'N', 'N');</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -16103,19 +16107,19 @@
         <v>10</v>
       </c>
       <c r="F345" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(985,'Ochlenberg');</v>
       </c>
       <c r="G345" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(985,'Ochlenberg',30,30,10);</v>
       </c>
       <c r="H345" t="s">
         <v>352</v>
       </c>
       <c r="I345" s="12" t="str">
-        <f t="shared" ref="I345" si="230">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A345,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(985, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A345,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(985, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -16135,20 +16139,20 @@
         <v>30</v>
       </c>
       <c r="F346" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(987,'Rumisberg');</v>
       </c>
       <c r="G346" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(987,'Rumisberg',20,0,30);</v>
       </c>
       <c r="H346" t="s">
         <v>353</v>
       </c>
       <c r="I346" s="12" t="str">
-        <f t="shared" ref="I346" si="231">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A346,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A346,", 3, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(987, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(987, 3, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A346,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A346,", 3, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(987, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(987, 3, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -16168,19 +16172,19 @@
         <v>0</v>
       </c>
       <c r="F347" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(988,'Seeberg');</v>
       </c>
       <c r="G347" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(988,'Seeberg',0,20,0);</v>
       </c>
       <c r="H347" t="s">
         <v>354</v>
       </c>
       <c r="I347" s="12" t="str">
-        <f t="shared" ref="I347" si="232">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A347,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(988, 4, 'N', 'N', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A347,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(988, 4, 'N', 'N', 'N');</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -16200,19 +16204,19 @@
         <v>10</v>
       </c>
       <c r="F348" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(989,'Thörigen');</v>
       </c>
       <c r="G348" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(989,'Thörigen',30,0,10);</v>
       </c>
       <c r="H348" t="s">
         <v>355</v>
       </c>
       <c r="I348" s="12" t="str">
-        <f t="shared" ref="I348" si="233">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A348,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(989, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A348,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(989, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -16232,20 +16236,20 @@
         <v>20</v>
       </c>
       <c r="F349" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(990,'Walliswil bei Niederbipp');</v>
       </c>
       <c r="G349" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(990,'Walliswil bei Niederbipp',10,0,20);</v>
       </c>
       <c r="H349" t="s">
         <v>356</v>
       </c>
       <c r="I349" s="12" t="str">
-        <f t="shared" ref="I349" si="234">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A349,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A349,", 5, 'N', 'Y', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(990, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(990, 5, 'N', 'Y', 'N');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A349,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A349,", 5, 'N', 'Y', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(990, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(990, 5, 'N', 'Y', 'N');</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -16265,21 +16269,21 @@
         <v>20</v>
       </c>
       <c r="F350" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(991,'Walliswil bei Wangen');</v>
       </c>
       <c r="G350" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(991,'Walliswil bei Wangen',10,30,20);</v>
       </c>
       <c r="H350" t="s">
         <v>357</v>
       </c>
       <c r="I350" s="12" t="str">
-        <f t="shared" ref="I350" si="235">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A350,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A350,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A350,", 2, 'N', 'N', 'Y');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(991, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(991, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(991, 2, 'N', 'N', 'Y');</v>
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A350,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A350,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A350,", 2, 'N', 'N', 'Y');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(991, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(991, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(991, 2, 'N', 'N', 'Y');</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -16299,25 +16303,25 @@
         <v>20</v>
       </c>
       <c r="F351" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(992,'Wangen an der Aare');</v>
       </c>
       <c r="G351" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(992,'Wangen an der Aare',20,10,20);</v>
       </c>
       <c r="H351" t="s">
         <v>358</v>
       </c>
       <c r="I351" s="12" t="str">
-        <f t="shared" ref="I351" si="236">CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 4, 'N', 'N', 'N');")</f>
-        <v>INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 1, 'Y', 'N', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 5, 'N', 'Y', 'N');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 2, 'N', 'N', 'Y');
-INSERT INTO MUNICIPALITY_DOCUMENT (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 4, 'N', 'N', 'N');</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 1, 'Y', 'N', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 5, 'N', 'Y', 'N');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 2, 'N', 'N', 'Y');",CHAR(10),"INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(",A351,", 4, 'N', 'N', 'N');")</f>
+        <v>INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 1, 'Y', 'N', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 5, 'N', 'Y', 'N');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 2, 'N', 'N', 'Y');
+INSERT INTO MUNICIPALITY_DOCUMENT_RELATION (MUNICIPALITY_ID, DOCUMENT_ID, MARRIAGE_CONDITION, CHILDREN_CONDITION, STRANGER_CONDITION) VALUES(992, 4, 'N', 'N', 'N');</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>993</v>
       </c>
@@ -16334,15 +16338,15 @@
         <v>20</v>
       </c>
       <c r="F352" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(993,'Wangenried');</v>
       </c>
       <c r="G352" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(993,'Wangenried',30,30,20);</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>995</v>
       </c>
@@ -16359,15 +16363,15 @@
         <v>10</v>
       </c>
       <c r="F353" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(995,'Wiedlisbach');</v>
       </c>
       <c r="G353" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME,FEE_MOVE,FEE_MOVE_OUT,FEE_MOVE_IN) VALUES(995,'Wiedlisbach',10,30,10);</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>996</v>
       </c>
@@ -16384,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="F354" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO MUNICIPALITY (MUNICIPALITY_ID,MUNICIPALITY_NAME) VALUES(996,'Wolfisberg');</v>
       </c>
       <c r="G354" s="11" t="str">
@@ -16393,6 +16397,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I354" xr:uid="{5EE73CC2-7CF8-4283-A261-B5FC9F9FD92C}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
